--- a/masterlist/masterlist.xlsx
+++ b/masterlist/masterlist.xlsx
@@ -43,868 +43,868 @@
     <t>Notizen</t>
   </si>
   <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Publikation</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/2002/07/owl#Class</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#UserAccess</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Zugangsart</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#FoerderkennzeichenDrittmittelprojekt</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/2002/07/owl#DatatypeProperty</t>
+  </si>
+  <si>
+    <t>N93d765c3c42d4981ace19b0c48a7b663</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Qualifikationsschrift</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Publikationstyp</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Bewilligungssumme</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/2002/07/owl#FunctionalProperty</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#hatQualifikation</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/2002/07/owl#ObjectProperty</t>
+  </si>
+  <si>
+    <t>http://purl.org/cerif/frapo/hasFundingAgency</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Verteilt</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Forschungsinfrastrukturart</t>
+  </si>
+  <si>
+    <t>http://purl.org/dc/terms/modified</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/2002/07/owl#AnnotationProperty</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Nutzung</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#WissenschaftlichesUndKuenstlerischesPersonal</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Personalkategorie</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#TitelPatent</t>
+  </si>
+  <si>
+    <t>N7ef4d5da940b402c96762cd55fcf5975</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Qualifikation</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Dissertation</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#AltersgruppeBeiAbschluss</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Patent</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Artikel</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Universitaet</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Promotionskooperationspartner</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Konferenzname</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Sammelband</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Buch</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#hatBetreiber</t>
+  </si>
+  <si>
+    <t>Nc9c693a61cb44305b9e3de18ea5b4766</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/1999/02/22-rdf-syntax-ns#List</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Bundeslaender</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Mittelgeber</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#hatArt</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Taetigkeitsart</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#hatTaetigkeitsart</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#hatKoordinator</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Veroeffentlichungsnummer</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#QuelleneditionDokumenttyp</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Dokumenttyp</t>
+  </si>
+  <si>
+    <t>Ne6bed5cdda9f4012af15ad427f0dc5eb</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#VertragslaufzeitInMonaten</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#NichtErklaertOeffentlicheMittelgeber</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#NichtErklaert</t>
+  </si>
+  <si>
+    <t>http://purl.org/cerif/frapo/isFundingAgencyFor</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#TitelPublikation</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/2001/XMLSchema#date</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/2000/01/rdf-schema#Datatype</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#FoerderkennzeichenPublikation</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#GruppeMitHerausgeberfunktion</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Schoepfertyp</t>
+  </si>
+  <si>
+    <t>http://purl.org/dc/terms/hasVersion</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Kooperationspartner</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Monographie</t>
+  </si>
+  <si>
+    <t>http://ontologies.mfn-berlin.de/ikon#hatLeitthema</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#hatPersonalkategorie</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#QuelleneditionPublikationstyp</t>
+  </si>
+  <si>
+    <t>N0574552a251f4e8985c594af90f014ef</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#hatFach</t>
+  </si>
+  <si>
     <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Foerderer</t>
   </si>
   <si>
-    <t>http://www.w3.org/2002/07/owl#DatatypeProperty</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Forschungsinfrastrukturart</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/2002/07/owl#Class</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Buch</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Publikationstyp</t>
-  </si>
-  <si>
-    <t>Nfd696f9c94ab41bc915e12d0f4cde811</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/1999/02/22-rdf-syntax-ns#List</t>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#hatPublikation</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Verwaltungspersonal</t>
+  </si>
+  <si>
+    <t>http://purl.org/dc/terms/title</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/2003/06/sw-vocab-status/ns#term_status</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#WissenschaftlicheUndKuenstlerischeMitarbeiter</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#hatUnterstuetzungDurch</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#hatGemeinsameBerufung</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#BeschreibungDerForschungsinfrastruktur</t>
+  </si>
+  <si>
+    <t>N10e0261855e542dfa0bf60c24dfe28c8</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#BeitraegeInterviewsInNicht-wissenschaftlichenMedien</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#BezeichnungDerForschungsinfrastruktur</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#InformationsUndKommunikationsinfrastrukturen</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Forschungsinfrastrukturtyp</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#hatNutzung</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#BeteiligteInstitutionen</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Altersgruppe</t>
+  </si>
+  <si>
+    <t>http://d-nb.info/standards/elementset/gnd#predecessor</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/2002/07/owl#TransitiveProperty</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Journalartikel</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Fach</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#hatQualifizierungsverfahren</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#WissenschaftlicheOderKuenstlerischeHilfskraefte</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/2004/02/skos/core#semanticRelation</t>
+  </si>
+  <si>
+    <t>http://purl.org/cerif/frapo/hasAcronym</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Seniorprofessoren</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#SonstigeProfessoren</t>
+  </si>
+  <si>
+    <t>http://ontologies.mfn-berlin.de/ikon#precedingWork</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#NameDerQuelle</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#StartDerPromotionNachAnnahmeAmFachbereichAnDerFakultaet</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#hatSprecher</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Virtuell</t>
+  </si>
+  <si>
+    <t>N994d00a605634bb29d7f679c2b4de3f6</t>
+  </si>
+  <si>
+    <t>http://purl.org/dc/terms/identifier</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#GewerblicheWirtschaftUndSonstigePrivateBereiche</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#KoordinatorEinrichtung</t>
+  </si>
+  <si>
+    <t>Ne59ea587b14f48198ca9b12ed2b7df36</t>
+  </si>
+  <si>
+    <t>N073ae5119c984c218121096a330b7598</t>
+  </si>
+  <si>
+    <t>Nb27ef15c1f394006878af147b4cc33f7</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Konferenzposter</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Schoepfername</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Editorial</t>
+  </si>
+  <si>
+    <t>http://purl.org/dc/elements/1.1/description</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#GemeinsameBerufung</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Software</t>
+  </si>
+  <si>
+    <t>N6458773842484d088c9ca31d8dd02cbc</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/2004/02/skos/core#mappingRelation</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#HerausgeberschaftEinesSonderheftsEinerZeitschrift</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#WissenschaftlicherArtikel</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Finanzierungsform</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Promoviert</t>
+  </si>
+  <si>
+    <t>Ndaced0a054cc42059028ace697869d3f</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#TitelProjekt</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Forschungsinfrastruktur</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#SonstigeKooperationspartner</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#BezeichnungDerProfessur</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#DatumDerPrioritaetsbegruendendenErstanmeldung</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#hatBefristung</t>
+  </si>
+  <si>
+    <t>http://purl.org/cerif/frapo/supports</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#BibliographieDokumenttyp</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Unbefristet</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Befristung</t>
+  </si>
+  <si>
+    <t>http://purl.org/dc/terms/issued</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Professorenbezeichnung</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#SonstigeDrittmittelgeber</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#NeuerPublikationstyp</t>
+  </si>
+  <si>
+    <t>http://purl.org/cerif/frapo/isSupportedBy</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Drittmittelprojekt</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#EU</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#EuUndSonstigeInternationaleOrganisationen</t>
+  </si>
+  <si>
+    <t>http://ontologies.mfn-berlin.de/ikon#Leitthema</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#hatFinanzierungsform</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Staatsangehoerigkeit</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#FH</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Habilitationsschrift</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Professoren</t>
   </si>
   <si>
     <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Ausgruendung</t>
   </si>
   <si>
-    <t>N0220fa28d38349d2ad1b5064f7bd726c</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#GruppeMitHerausgeberfunktion</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Schoepfertyp</t>
+    <t>N165a53cb55ac43d49dece1bf950456cd</t>
+  </si>
+  <si>
+    <t>Nba8c6366e22c4b168aeaf31dd3dc5125</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#OpenAccess</t>
+  </si>
+  <si>
+    <t>N673b321b2ee048cca63549816a7a4751</t>
+  </si>
+  <si>
+    <t>http://ontologies.mfn-berlin.de/ikon#mapping</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#hatUntereinheit</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#MeetingAbstract</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#HerausgegebenesBuch</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#StartDerPromotionNachBetreuungsvereinbarungArbeitsvertrag</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Nebenberuflich</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#BibliographiePublikationstyp</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Mischfinanzierung</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Seitenbereich</t>
   </si>
   <si>
     <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#NameDerOrganisationseinheit</t>
   </si>
   <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#WissenschaftlicheUndKuenstlerischeMitarbeiter</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#WissenschaftlichesUndKuenstlerischesPersonal</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#SonstigeDrittmittelgeber</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Mittelgeber</t>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#hatMittelgeber</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#hatBezeichnung</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Band</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#hatFormat</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/2004/02/skos/core#scopeNote</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/owl/Meta#pgbid</t>
+  </si>
+  <si>
+    <t>N46d18a37a29f463f8173b69b3e19f492</t>
+  </si>
+  <si>
+    <t>http://ontologies.mfn-berlin.de/ikon#succeedingProject</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#hatZugangsart</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#hatKooperationspartner</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Herausgeber</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Rezension</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Teilzeit</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Hauptberuflich</t>
+  </si>
+  <si>
+    <t>N196483b2d23a4072910af3c81ace7719</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Geschlecht</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Beschaeftigung</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Review</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/owl/Meta#inhaltlicheDefinition</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Verlag</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Schoepfer</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#SonstigesWissenschaftlichesUndKuenstlerischesPersonal</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Sammelbandbeitrag</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#GrundmittelUndInstitutionelleMittel</t>
+  </si>
+  <si>
+    <t>N5c64e0a7150940018eee2b927cee4634</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#hatSchoepfer</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#GrossgeraeteUndInstrumente</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Zugriffsrechte</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#hatUebergeordnetesProjekt</t>
+  </si>
+  <si>
+    <t>N05b554f4654d4357ac3865d5241fcdda</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Autor</t>
+  </si>
+  <si>
+    <t>http://d-nb.info/standards/elementset/gnd#successor</t>
+  </si>
+  <si>
+    <t>http://purl.org/dc/terms/isPartOf</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Koordinationsrolle</t>
+  </si>
+  <si>
+    <t>N114539a5d6aa4fe9b2976d8923cd3423</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Promotion</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Qualifizierungsverfahren</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Ressource</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#TitelPromotionsprogramm</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Person</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#hatTyp</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#KoerperschaftMitHerausgeberfunktion</t>
+  </si>
+  <si>
+    <t>http://ontologies.mfn-berlin.de/ikon#TitelProjektKurz</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#hatOrganisationseinheit</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#ArbeitspapierForschungsbericht</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Organisationseinheit</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#AUF</t>
+  </si>
+  <si>
+    <t>http://purl.org/dc/terms/description</t>
+  </si>
+  <si>
+    <t>N165889712dba4c25841df1462deede64</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Stiftungsprofessoren</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Datensammlung</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#ePaper</t>
+  </si>
+  <si>
+    <t>N5f87eb3eddef402caa7a9db2ef1f358f</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Bund</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#SonstigesPersonal</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#hatBeschaeftigung</t>
+  </si>
+  <si>
+    <t>http://ontologies.mfn-berlin.de/ikon</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/2002/07/owl#Ontology</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#NameAusgruendung</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Lokal</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/2002/07/owl#NamedIndividual</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#hatBetriebspersonal</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Beschaeftigter</t>
+  </si>
+  <si>
+    <t>Nbb697206d6f14dffbc0dfdae03646b34</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Befristet</t>
+  </si>
+  <si>
+    <t>N55cccbc7f25f4e7295de5ee225688da4</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Sprache</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#OrdentlicheProfessoren</t>
+  </si>
+  <si>
+    <t>Nfee5d39d10544d2c83b6e72a7662143c</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#AnzahlNutzungszugriffe</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#DFG</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Projektende</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#hatForschungsfeld</t>
   </si>
   <si>
     <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Verlagsort</t>
   </si>
   <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Besoldung</t>
+  </si>
+  <si>
     <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Veroeffentlichungsjahr</t>
   </si>
   <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Verteilt</t>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#GruppeMitAutorenfunktion</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#hatVerlag</t>
+  </si>
+  <si>
+    <t>Ne5bb592a357848bea561cfb39a55d239</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#WissenschaftlicheVortragsfolien</t>
+  </si>
+  <si>
+    <t>N213352004288424f9cf5ff0a3eb95f11</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#AnzahlNutzer</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/2004/02/skos/core#definition</t>
+  </si>
+  <si>
+    <t>http://purl.org/cerif/frapo/FundingAgency</t>
+  </si>
+  <si>
+    <t>http://xmlns.com/foaf/0.1/Organization</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#SonstigeInternationaleOrganisationen</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#KoerperschaftMitAutorenfunktion</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Name</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#LaenderDerBeteiligtenInstitutionen</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#AusserplanmaessigeProfessoren</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Vollzeit</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#hatErfinder</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Format</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Juniorprofessoren</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#WissenschaftsunterstuetzendesPersonal</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Forschungsfeld</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Drittmittelertraege</t>
+  </si>
+  <si>
+    <t>http://purl.org/dc/terms/hasPart</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#NameDerWeiterenEinrichtung</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#NichtErklaertPrivateMittelgeber</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#hatSchoepfertyp</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Drittmittel</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#LetterToTheEditor</t>
+  </si>
+  <si>
+    <t>N470f58069cea4d5bb6c504d49bccd33b</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Wissensressourcen</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Drittmitteleinnahmen</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Abschlusszeitpunkt</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#hatPublikationstyp</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Habilitiert</t>
+  </si>
+  <si>
+    <t>N1d56ee48562b4b09b86d45166fddb8db</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#SonstigerTyp</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Projektbeginn</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Sondermittel</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Habilitation</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Heft</t>
+  </si>
+  <si>
+    <t>N3e641e47bdf647d080cd25a51d3a151a</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#hatPromotionsberechtigungAus</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#hatAnmelder</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#AnzahlGenutzteStunden</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Sprachcode</t>
+  </si>
+  <si>
+    <t>N80d85e0e86c245279534ce18ab4eec34</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#hatDokumenttyp</t>
   </si>
   <si>
     <t>http://ontologies.mfn-berlin.de/ikon#TitelProjektRedaktionell</t>
   </si>
   <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#NichtErklaert</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#HerausgeberschaftEinesSonderheftsEinerZeitschrift</t>
-  </si>
-  <si>
-    <t>http://purl.org/dc/terms/hasPart</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/2002/07/owl#ObjectProperty</t>
-  </si>
-  <si>
     <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#hatErstbetreuer</t>
   </si>
   <si>
-    <t>http://ontologies.mfn-berlin.de/ikon#TitelProjektKurz</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Sprache</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Heft</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#NameDerQuelle</t>
-  </si>
-  <si>
-    <t>N2439c423c9014185a771057b5591f883</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#EU</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#EuUndSonstigeInternationaleOrganisationen</t>
-  </si>
-  <si>
-    <t>http://ontologies.mfn-berlin.de/ikon#precedingWork</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/2002/07/owl#TransitiveProperty</t>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#StrukturiertesPromotionsprogramm</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Vertretungsprofessoren</t>
+  </si>
+  <si>
+    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#SharedAccess</t>
   </si>
   <si>
     <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#HauptberuflicheGastprofessoren</t>
   </si>
   <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#SonstigeProfessoren</t>
-  </si>
-  <si>
-    <t>N241f02b48a6246e7a799c7cf0675ed6d</t>
-  </si>
-  <si>
-    <t>http://ontologies.mfn-berlin.de/ikon#Leitthema</t>
-  </si>
-  <si>
-    <t>Nbfcb1b8a569f490b8c91223b9b992e46</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/2000/01/rdf-schema#Datatype</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Software</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#hatZugangsart</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#GruppeMitAutorenfunktion</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Nebenberuflich</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Taetigkeitsart</t>
-  </si>
-  <si>
-    <t>http://purl.org/cerif/frapo/FundingAgency</t>
-  </si>
-  <si>
-    <t>http://xmlns.com/foaf/0.1/Organization</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Universitaet</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Promotionskooperationspartner</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/2001/XMLSchema#date</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#hatSprecher</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Journalartikel</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Artikel</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Format</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#GrossgeraeteUndInstrumente</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Forschungsinfrastrukturtyp</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Veroeffentlichungsnummer</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Teilzeit</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Hauptberuflich</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Bundeslaender</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Juniorprofessoren</t>
-  </si>
-  <si>
-    <t>http://purl.org/dc/terms/issued</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/2002/07/owl#AnnotationProperty</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Dissertation</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Qualifikationsschrift</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#hatPublikationstyp</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Professorenbezeichnung</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Person</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#KoerperschaftMitAutorenfunktion</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#hatBezeichnung</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#SharedAccess</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Zugangsart</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#HerausgegebenesBuch</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Besoldung</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#AUF</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/2004/02/skos/core#semanticRelation</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Drittmittelprojekt</t>
-  </si>
-  <si>
-    <t>Nd776d6ed6a154c2c94c95079d12992e2</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Nutzung</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Seitenbereich</t>
-  </si>
-  <si>
-    <t>http://purl.org/dc/terms/hasVersion</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#NeuerPublikationstyp</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Fach</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Sammelbandbeitrag</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#StartDerPromotionNachAnnahmeAmFachbereichAnDerFakultaet</t>
-  </si>
-  <si>
-    <t>http://d-nb.info/standards/elementset/gnd#predecessor</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Seniorprofessoren</t>
-  </si>
-  <si>
-    <t>N799302e4abf24d1db2bd433e57efd820</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Ressource</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#BeschreibungDerForschungsinfrastruktur</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#WissenschaftlicheOderKuenstlerischeHilfskraefte</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#hatSchoepfertyp</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Editorial</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Dokumenttyp</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Autor</t>
-  </si>
-  <si>
-    <t>Ndee206e8c67746bc905f23266c8c8c9d</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Publikation</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#hatFinanzierungsform</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#NichtErklaertOeffentlicheMittelgeber</t>
-  </si>
-  <si>
-    <t>http://purl.org/cerif/frapo/supports</t>
-  </si>
-  <si>
-    <t>http://d-nb.info/standards/elementset/gnd#successor</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#QuelleneditionDokumenttyp</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Staatsangehoerigkeit</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Beschaeftigung</t>
-  </si>
-  <si>
-    <t>N090e7e2684204bdc85a69f73cb9f5183</t>
+    <t>N97819e39a1744dc4ae3bc3805d74d929</t>
   </si>
   <si>
     <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#PeerReviewed</t>
   </si>
   <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#AnzahlNutzungszugriffe</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#TitelPublikation</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/2002/07/owl#FunctionalProperty</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Projektbeginn</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#TitelPatent</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#OrdentlicheProfessoren</t>
-  </si>
-  <si>
-    <t>http://purl.org/dc/terms/identifier</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#KoordinatorEinrichtung</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Bund</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#NameAusgruendung</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Virtuell</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Koordinationsrolle</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Habilitiert</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Qualifikation</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#hatBefristung</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#hatOrganisationseinheit</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Band</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Altersgruppe</t>
-  </si>
-  <si>
-    <t>Nf237b1df076c4feabee9b0e6068306bd</t>
-  </si>
-  <si>
-    <t>N5666ca692ef24edcba04e68790579007</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#LetterToTheEditor</t>
-  </si>
-  <si>
-    <t>http://ontologies.mfn-berlin.de/ikon#mapping</t>
-  </si>
-  <si>
-    <t>http://ontologies.mfn-berlin.de/ikon#succeedingProject</t>
-  </si>
-  <si>
-    <t>http://purl.org/cerif/frapo/isFundingAgencyFor</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Organisationseinheit</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#BibliographieDokumenttyp</t>
-  </si>
-  <si>
-    <t>http://ontologies.mfn-berlin.de/ikon</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/2002/07/owl#Ontology</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/2002/07/owl#NamedIndividual</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#AusserplanmaessigeProfessoren</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#GrundmittelUndInstitutionelleMittel</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Finanzierungsform</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Forschungsfeld</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#VertragslaufzeitInMonaten</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#BibliographiePublikationstyp</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#WissenschaftlicherArtikel</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#TitelProjekt</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Monographie</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Habilitationsschrift</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Rezension</t>
-  </si>
-  <si>
-    <t>N60cd9adcdfe945be9ddd5b15d36489a3</t>
-  </si>
-  <si>
-    <t>N514d73341e594dc1935746a0958b6c7c</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#MeetingAbstract</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#NichtErklaertPrivateMittelgeber</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#BezeichnungDerForschungsinfrastruktur</t>
-  </si>
-  <si>
-    <t>http://purl.org/dc/terms/title</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#SonstigesWissenschaftlichesUndKuenstlerischesPersonal</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#AnzahlNutzer</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#WissenschaftsunterstuetzendesPersonal</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Personalkategorie</t>
-  </si>
-  <si>
-    <t>http://purl.org/cerif/frapo/hasAcronym</t>
-  </si>
-  <si>
-    <t>N08e6b9b2b8284cb78d9c79dc94a00102</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Schoepfername</t>
-  </si>
-  <si>
-    <t>Nf5c0ebca4d25470eb86de250048d9bc0</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#hatVerlag</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#BeitraegeInterviewsInNicht-wissenschaftlichenMedien</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Mischfinanzierung</t>
-  </si>
-  <si>
-    <t>N1cb33d0c74024368ac3c5ceab39e79dd</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Review</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#hatDokumenttyp</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Sprachcode</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Sammelband</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#QuelleneditionPublikationstyp</t>
-  </si>
-  <si>
-    <t>http://purl.org/dc/terms/description</t>
-  </si>
-  <si>
-    <t>http://purl.org/cerif/frapo/isSupportedBy</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#DatumDerPrioritaetsbegruendendenErstanmeldung</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#ePaper</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#hatQualifikation</t>
-  </si>
-  <si>
-    <t>N59f034df5e7f44228b93793055f8c2c6</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Professoren</t>
-  </si>
-  <si>
-    <t>Nce43e3b7bddb4f7da04ef7387e153be9</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Projektende</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#hatBeschaeftigung</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#FoerderkennzeichenPublikation</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/2004/02/skos/core#scopeNote</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Name</t>
-  </si>
-  <si>
-    <t>Ne73ede3c065f4132845d8a20c8ea44d5</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#hatUebergeordnetesProjekt</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#GewerblicheWirtschaftUndSonstigePrivateBereiche</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#hatUnterstuetzungDurch</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#hatNutzung</t>
-  </si>
-  <si>
-    <t>N95fce4240ed44a2e848b88e77a5100af</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Drittmittelertraege</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#TitelPromotionsprogramm</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#StrukturiertesPromotionsprogramm</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#hatAnmelder</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Konferenzname</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Konferenzposter</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#hatQualifizierungsverfahren</t>
-  </si>
-  <si>
-    <t>N3c11933d371f4cbf98cdecda896e3062</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#ArbeitspapierForschungsbericht</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Abschlusszeitpunkt</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#AnzahlGenutzteStunden</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/owl/Meta#pgbid</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Verwaltungspersonal</t>
-  </si>
-  <si>
-    <t>Ne856de528074435d9a7d622cece60250</t>
-  </si>
-  <si>
-    <t>N57c2340fbb9447c786f3765c0dbdb1d2</t>
-  </si>
-  <si>
-    <t>http://ontologies.mfn-berlin.de/ikon#hatLeitthema</t>
-  </si>
-  <si>
-    <t>N172737ca26754f86b1491690454095de</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#UserAccess</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#SonstigeKooperationspartner</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Schoepfer</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#hatBetriebspersonal</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#hatPromotionsberechtigungAus</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#hatKoordinator</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Kooperationspartner</t>
-  </si>
-  <si>
-    <t>N50ea71a34a3e4d638d42142a41a2c42f</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Geschlecht</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Lokal</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#hatPublikation</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Bewilligungssumme</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#LaenderDerBeteiligtenInstitutionen</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/owl/Meta#inhaltlicheDefinition</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Stiftungsprofessoren</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#SonstigerTyp</t>
-  </si>
-  <si>
-    <t>N5fb2d3bcbc1c4798812c60b417d25cb8</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Promoviert</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#AltersgruppeBeiAbschluss</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Befristet</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Befristung</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/2003/06/sw-vocab-status/ns#term_status</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#hatFormat</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Zugriffsrechte</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#hatKooperationspartner</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Drittmitteleinnahmen</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#GemeinsameBerufung</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#hatFach</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Herausgeber</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Unbefristet</t>
-  </si>
-  <si>
-    <t>http://purl.org/dc/terms/isPartOf</t>
-  </si>
-  <si>
-    <t>N867fba836a794903bbddd00954b7ae98</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Verlag</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Wissensressourcen</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#BeteiligteInstitutionen</t>
-  </si>
-  <si>
-    <t>N3c9a8ac93d8f46df88ed29e537b7b9c4</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Sondermittel</t>
-  </si>
-  <si>
-    <t>Nd50437207bcc440d9c52d8bcd82bc3c1</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#hatForschungsfeld</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#WissenschaftlicheVortragsfolien</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#FoerderkennzeichenDrittmittelprojekt</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#BezeichnungDerProfessur</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Qualifizierungsverfahren</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#hatBetreiber</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#DFG</t>
-  </si>
-  <si>
-    <t>N6326c9e0ea90464c9ecb97dac1238cb9</t>
-  </si>
-  <si>
-    <t>N1f23d0e642494d408a429a41cd8fc002</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#hatErfinder</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#NameDerWeiterenEinrichtung</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#KoerperschaftMitHerausgeberfunktion</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Vollzeit</t>
-  </si>
-  <si>
-    <t>Nf3f4cd9bf28c40be885ef1a3bdefedc7</t>
-  </si>
-  <si>
-    <t>http://purl.org/dc/elements/1.1/description</t>
-  </si>
-  <si>
     <t>http://ontologies.mfn-berlin.de/ikon#Kooperationspartner</t>
   </si>
   <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#hatArt</t>
-  </si>
-  <si>
-    <t>http://purl.org/cerif/frapo/hasFundingAgency</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/2004/02/skos/core#mappingRelation</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#OpenAccess</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Vertretungsprofessoren</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#StartDerPromotionNachBetreuungsvereinbarungArbeitsvertrag</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Patent</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#hatSchoepfer</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#SonstigeInternationaleOrganisationen</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Drittmittel</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#hatUntereinheit</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#hatTaetigkeitsart</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#hatGemeinsameBerufung</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Habilitation</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#InformationsUndKommunikationsinfrastrukturen</t>
-  </si>
-  <si>
-    <t>http://purl.org/dc/terms/modified</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/2004/02/skos/core#definition</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Promotion</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#hatPersonalkategorie</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Beschaeftigter</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#hatMittelgeber</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#SonstigesPersonal</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#FH</t>
-  </si>
-  <si>
-    <t>N38f8864d7f7a4e2f9aa67cf1cede1bbe</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Forschungsinfrastruktur</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#Datensammlung</t>
-  </si>
-  <si>
-    <t>http://kerndatensatz-forschung.de/version1/technisches_datenmodell/owl/Basis#hatTyp</t>
+    <t>Ncdeb0ecf7d6c4b1c8e9d46759da4cee1</t>
   </si>
 </sst>
 </file>
@@ -1312,10 +1312,10 @@
         <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
@@ -1335,10 +1335,10 @@
         <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -1358,7 +1358,7 @@
         <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -1378,14 +1378,14 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
       <c r="D6" t="s">
         <v>11</v>
       </c>
@@ -1400,11 +1400,11 @@
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
@@ -1424,13 +1424,13 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
       </c>
       <c r="D8" t="s">
         <v>11</v>
@@ -1447,10 +1447,10 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
@@ -1470,13 +1470,13 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>11</v>
@@ -1493,13 +1493,13 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
       </c>
       <c r="D11" t="s">
         <v>11</v>
@@ -1516,7 +1516,7 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>10</v>
@@ -1539,13 +1539,13 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C13" t="s">
-        <v>11</v>
+      <c r="C13" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="D13" t="s">
         <v>11</v>
@@ -1562,13 +1562,13 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
       </c>
       <c r="D14" t="s">
         <v>11</v>
@@ -1584,8 +1584,8 @@
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="1" t="s">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>32</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>10</v>
@@ -1608,13 +1608,13 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
       </c>
       <c r="D16" t="s">
         <v>11</v>
@@ -1631,13 +1631,13 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D17" t="s">
         <v>11</v>
@@ -1654,10 +1654,10 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C18" t="s">
         <v>11</v>
@@ -1677,10 +1677,10 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="C19" t="s">
         <v>11</v>
@@ -1700,13 +1700,13 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C20" t="s">
-        <v>11</v>
+      <c r="C20" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="D20" t="s">
         <v>11</v>
@@ -1723,13 +1723,13 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C21" t="s">
-        <v>11</v>
+      <c r="C21" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="D21" t="s">
         <v>11</v>
@@ -1746,10 +1746,10 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C22" t="s">
         <v>11</v>
@@ -1769,13 +1769,13 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C23" t="s">
-        <v>11</v>
+      <c r="C23" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="D23" t="s">
         <v>11</v>
@@ -1791,11 +1791,11 @@
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" t="s">
-        <v>40</v>
+      <c r="A24" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C24" t="s">
         <v>11</v>
@@ -1814,14 +1814,14 @@
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="1" t="s">
-        <v>41</v>
+      <c r="A25" t="s">
+        <v>44</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
+      </c>
+      <c r="C25" t="s">
+        <v>11</v>
       </c>
       <c r="D25" t="s">
         <v>11</v>
@@ -1838,13 +1838,13 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="D26" t="s">
         <v>11</v>
@@ -1861,13 +1861,13 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>46</v>
+        <v>22</v>
+      </c>
+      <c r="C27" t="s">
+        <v>11</v>
       </c>
       <c r="D27" t="s">
         <v>11</v>
@@ -1883,11 +1883,11 @@
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" t="s">
-        <v>47</v>
+      <c r="A28" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C28" t="s">
         <v>11</v>
@@ -1907,10 +1907,10 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C29" t="s">
         <v>11</v>
@@ -1929,11 +1929,11 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" t="s">
-        <v>49</v>
+      <c r="A30" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="C30" t="s">
         <v>11</v>
@@ -1953,10 +1953,10 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C31" t="s">
         <v>11</v>
@@ -1976,13 +1976,13 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="D32" t="s">
         <v>11</v>
@@ -1998,11 +1998,11 @@
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="1" t="s">
-        <v>52</v>
+      <c r="A33" t="s">
+        <v>55</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C33" t="s">
         <v>11</v>
@@ -2022,13 +2022,13 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="C34" t="s">
+        <v>11</v>
       </c>
       <c r="D34" t="s">
         <v>11</v>
@@ -2045,13 +2045,13 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D35" t="s">
         <v>11</v>
@@ -2068,13 +2068,13 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>57</v>
+        <v>22</v>
+      </c>
+      <c r="C36" t="s">
+        <v>11</v>
       </c>
       <c r="D36" t="s">
         <v>11</v>
@@ -2091,13 +2091,13 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>59</v>
+        <v>15</v>
+      </c>
+      <c r="C37" t="s">
+        <v>11</v>
       </c>
       <c r="D37" t="s">
         <v>11</v>
@@ -2114,10 +2114,10 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C38" t="s">
         <v>11</v>
@@ -2137,10 +2137,10 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C39" t="s">
         <v>11</v>
@@ -2160,13 +2160,13 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D40" t="s">
         <v>11</v>
@@ -2183,10 +2183,10 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C41" t="s">
         <v>11</v>
@@ -2206,13 +2206,13 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>66</v>
+        <v>15</v>
+      </c>
+      <c r="C42" t="s">
+        <v>11</v>
       </c>
       <c r="D42" t="s">
         <v>11</v>
@@ -2229,13 +2229,13 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C43" t="s">
-        <v>11</v>
+      <c r="C43" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="D43" t="s">
         <v>11</v>
@@ -2252,13 +2252,13 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>69</v>
+        <v>22</v>
+      </c>
+      <c r="C44" t="s">
+        <v>11</v>
       </c>
       <c r="D44" t="s">
         <v>11</v>
@@ -2275,10 +2275,10 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C45" t="s">
         <v>11</v>
@@ -2298,13 +2298,13 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D46" t="s">
         <v>11</v>
@@ -2320,14 +2320,14 @@
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="1" t="s">
-        <v>71</v>
+      <c r="A47" t="s">
+        <v>72</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>46</v>
+        <v>62</v>
+      </c>
+      <c r="C47" t="s">
+        <v>11</v>
       </c>
       <c r="D47" t="s">
         <v>11</v>
@@ -2344,10 +2344,10 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="C48" t="s">
         <v>11</v>
@@ -2370,10 +2370,10 @@
         <v>74</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>75</v>
+        <v>15</v>
+      </c>
+      <c r="C49" t="s">
+        <v>11</v>
       </c>
       <c r="D49" t="s">
         <v>11</v>
@@ -2390,10 +2390,10 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C50" t="s">
         <v>11</v>
@@ -2413,13 +2413,13 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="D51" t="s">
         <v>11</v>
@@ -2436,10 +2436,10 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C52" t="s">
         <v>11</v>
@@ -2459,13 +2459,13 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
+      </c>
+      <c r="C53" t="s">
+        <v>11</v>
       </c>
       <c r="D53" t="s">
         <v>11</v>
@@ -2482,13 +2482,13 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C54" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="D54" t="s">
         <v>11</v>
@@ -2505,13 +2505,13 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>82</v>
+        <v>22</v>
+      </c>
+      <c r="C55" t="s">
+        <v>11</v>
       </c>
       <c r="D55" t="s">
         <v>11</v>
@@ -2528,13 +2528,13 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="C56" t="s">
+        <v>11</v>
       </c>
       <c r="D56" t="s">
         <v>11</v>
@@ -2551,10 +2551,10 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C57" t="s">
         <v>11</v>
@@ -2573,14 +2573,14 @@
       </c>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="1" t="s">
-        <v>85</v>
+      <c r="A58" t="s">
+        <v>83</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>59</v>
+        <v>45</v>
+      </c>
+      <c r="C58" t="s">
+        <v>11</v>
       </c>
       <c r="D58" t="s">
         <v>11</v>
@@ -2597,10 +2597,10 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C59" t="s">
         <v>11</v>
@@ -2620,13 +2620,13 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C60" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="D60" t="s">
         <v>11</v>
@@ -2642,11 +2642,11 @@
       </c>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" t="s">
-        <v>88</v>
+      <c r="A61" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C61" t="s">
         <v>11</v>
@@ -2666,13 +2666,13 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C62" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="D62" t="s">
         <v>11</v>
@@ -2689,10 +2689,10 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C63" t="s">
         <v>11</v>
@@ -2712,10 +2712,10 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="C64" t="s">
         <v>11</v>
@@ -2735,13 +2735,13 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C65" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="C65" t="s">
+        <v>11</v>
       </c>
       <c r="D65" t="s">
         <v>11</v>
@@ -2758,10 +2758,10 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="C66" t="s">
         <v>11</v>
@@ -2781,13 +2781,13 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="D67" t="s">
         <v>11</v>
@@ -2804,7 +2804,7 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>10</v>
@@ -2827,10 +2827,10 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C69" t="s">
         <v>11</v>
@@ -2850,33 +2850,33 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D70" t="s">
+        <v>11</v>
+      </c>
+      <c r="E70" t="s">
+        <v>11</v>
+      </c>
+      <c r="F70" t="s">
+        <v>11</v>
+      </c>
+      <c r="G70" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D70" t="s">
-        <v>11</v>
-      </c>
-      <c r="E70" t="s">
-        <v>11</v>
-      </c>
-      <c r="F70" t="s">
-        <v>11</v>
-      </c>
-      <c r="G70" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
-      <c r="A71" t="s">
-        <v>98</v>
-      </c>
       <c r="B71" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C71" t="s">
         <v>11</v>
@@ -2896,10 +2896,10 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C72" t="s">
         <v>11</v>
@@ -2919,13 +2919,13 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C73" t="s">
-        <v>11</v>
       </c>
       <c r="D73" t="s">
         <v>11</v>
@@ -2945,10 +2945,10 @@
         <v>101</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>24</v>
+        <v>92</v>
+      </c>
+      <c r="C74" t="s">
+        <v>11</v>
       </c>
       <c r="D74" t="s">
         <v>11</v>
@@ -2968,7 +2968,7 @@
         <v>102</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C75" t="s">
         <v>11</v>
@@ -2988,13 +2988,13 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>103</v>
+        <v>31</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>104</v>
+        <v>15</v>
+      </c>
+      <c r="C76" t="s">
+        <v>11</v>
       </c>
       <c r="D76" t="s">
         <v>11</v>
@@ -3011,13 +3011,13 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
+      </c>
+      <c r="C77" t="s">
+        <v>11</v>
       </c>
       <c r="D77" t="s">
         <v>11</v>
@@ -3033,11 +3033,11 @@
       </c>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" t="s">
-        <v>106</v>
+      <c r="A78" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C78" t="s">
         <v>11</v>
@@ -3057,13 +3057,13 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C79" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="D79" t="s">
         <v>11</v>
@@ -3079,11 +3079,11 @@
       </c>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="1" t="s">
-        <v>108</v>
+      <c r="A80" t="s">
+        <v>106</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C80" t="s">
         <v>11</v>
@@ -3103,13 +3103,13 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
+      </c>
+      <c r="C81" t="s">
+        <v>11</v>
       </c>
       <c r="D81" t="s">
         <v>11</v>
@@ -3126,13 +3126,13 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C82" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="D82" t="s">
         <v>11</v>
@@ -3149,79 +3149,79 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C83" t="s">
+        <v>11</v>
+      </c>
+      <c r="D83" t="s">
+        <v>11</v>
+      </c>
+      <c r="E83" t="s">
+        <v>11</v>
+      </c>
+      <c r="F83" t="s">
+        <v>11</v>
+      </c>
+      <c r="G83" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" t="s">
+        <v>110</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C84" t="s">
+        <v>11</v>
+      </c>
+      <c r="D84" t="s">
+        <v>11</v>
+      </c>
+      <c r="E84" t="s">
+        <v>11</v>
+      </c>
+      <c r="F84" t="s">
+        <v>11</v>
+      </c>
+      <c r="G84" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" t="s">
         <v>111</v>
       </c>
-      <c r="B83" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C83" t="s">
-        <v>11</v>
-      </c>
-      <c r="D83" t="s">
-        <v>11</v>
-      </c>
-      <c r="E83" t="s">
-        <v>11</v>
-      </c>
-      <c r="F83" t="s">
-        <v>11</v>
-      </c>
-      <c r="G83" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
-      <c r="A84" s="1" t="s">
+      <c r="B85" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C85" t="s">
+        <v>11</v>
+      </c>
+      <c r="D85" t="s">
+        <v>11</v>
+      </c>
+      <c r="E85" t="s">
+        <v>11</v>
+      </c>
+      <c r="F85" t="s">
+        <v>11</v>
+      </c>
+      <c r="G85" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" t="s">
         <v>112</v>
       </c>
-      <c r="B84" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D84" t="s">
-        <v>11</v>
-      </c>
-      <c r="E84" t="s">
-        <v>11</v>
-      </c>
-      <c r="F84" t="s">
-        <v>11</v>
-      </c>
-      <c r="G84" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
-      <c r="A85" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C85" t="s">
-        <v>11</v>
-      </c>
-      <c r="D85" t="s">
-        <v>11</v>
-      </c>
-      <c r="E85" t="s">
-        <v>11</v>
-      </c>
-      <c r="F85" t="s">
-        <v>11</v>
-      </c>
-      <c r="G85" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
-      <c r="A86" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="B86" s="1" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="C86" t="s">
         <v>11</v>
@@ -3240,11 +3240,11 @@
       </c>
     </row>
     <row r="87" spans="1:7">
-      <c r="A87" t="s">
-        <v>115</v>
+      <c r="A87" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C87" t="s">
         <v>11</v>
@@ -3264,13 +3264,13 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C88" t="s">
-        <v>11</v>
+      <c r="C88" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="D88" t="s">
         <v>11</v>
@@ -3287,10 +3287,10 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C89" t="s">
         <v>11</v>
@@ -3310,13 +3310,13 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C90" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="D90" t="s">
         <v>11</v>
@@ -3333,10 +3333,10 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>119</v>
+        <v>27</v>
       </c>
       <c r="C91" t="s">
         <v>11</v>
@@ -3356,10 +3356,10 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="C92" t="s">
         <v>11</v>
@@ -3379,13 +3379,13 @@
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="D93" t="s">
         <v>11</v>
@@ -3402,7 +3402,7 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>123</v>
+        <v>30</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>10</v>
@@ -3424,11 +3424,11 @@
       </c>
     </row>
     <row r="95" spans="1:7">
-      <c r="A95" s="1" t="s">
-        <v>124</v>
+      <c r="A95" t="s">
+        <v>119</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="C95" t="s">
         <v>11</v>
@@ -3448,13 +3448,13 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
+      </c>
+      <c r="C96" t="s">
+        <v>11</v>
       </c>
       <c r="D96" t="s">
         <v>11</v>
@@ -3471,13 +3471,13 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C97" t="s">
-        <v>11</v>
+      <c r="C97" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="D97" t="s">
         <v>11</v>
@@ -3494,13 +3494,13 @@
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D98" t="s">
         <v>11</v>
@@ -3517,7 +3517,7 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>10</v>
@@ -3540,13 +3540,13 @@
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>130</v>
+        <v>33</v>
       </c>
       <c r="D100" t="s">
         <v>11</v>
@@ -3562,11 +3562,11 @@
       </c>
     </row>
     <row r="101" spans="1:7">
-      <c r="A101" s="1" t="s">
-        <v>131</v>
+      <c r="A101" t="s">
+        <v>125</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>119</v>
+        <v>45</v>
       </c>
       <c r="C101" t="s">
         <v>11</v>
@@ -3586,10 +3586,10 @@
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C102" t="s">
         <v>11</v>
@@ -3609,7 +3609,7 @@
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>133</v>
+        <v>65</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>10</v>
@@ -3632,7 +3632,7 @@
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>10</v>
@@ -3654,14 +3654,14 @@
       </c>
     </row>
     <row r="105" spans="1:7">
-      <c r="A105" t="s">
-        <v>135</v>
+      <c r="A105" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C105" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="D105" t="s">
         <v>11</v>
@@ -3677,11 +3677,11 @@
       </c>
     </row>
     <row r="106" spans="1:7">
-      <c r="A106" t="s">
-        <v>136</v>
+      <c r="A106" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C106" t="s">
         <v>11</v>
@@ -3701,10 +3701,10 @@
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="1" t="s">
-        <v>59</v>
+        <v>130</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C107" t="s">
         <v>11</v>
@@ -3724,13 +3724,13 @@
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>104</v>
+        <v>20</v>
+      </c>
+      <c r="C108" t="s">
+        <v>11</v>
       </c>
       <c r="D108" t="s">
         <v>11</v>
@@ -3747,10 +3747,10 @@
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="C109" t="s">
         <v>11</v>
@@ -3770,13 +3770,13 @@
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C110" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="D110" t="s">
         <v>11</v>
@@ -3793,13 +3793,13 @@
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C111" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="D111" t="s">
         <v>11</v>
@@ -3816,10 +3816,10 @@
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C112" t="s">
         <v>11</v>
@@ -3839,13 +3839,13 @@
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="1" t="s">
-        <v>142</v>
+        <v>100</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>104</v>
+        <v>137</v>
       </c>
       <c r="D113" t="s">
         <v>11</v>
@@ -3862,13 +3862,13 @@
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C114" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="D114" t="s">
         <v>11</v>
@@ -3885,13 +3885,13 @@
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C115" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="D115" t="s">
         <v>11</v>
@@ -3908,13 +3908,13 @@
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>46</v>
+        <v>22</v>
+      </c>
+      <c r="C116" t="s">
+        <v>11</v>
       </c>
       <c r="D116" t="s">
         <v>11</v>
@@ -3931,13 +3931,13 @@
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>148</v>
+        <v>10</v>
+      </c>
+      <c r="C117" t="s">
+        <v>11</v>
       </c>
       <c r="D117" t="s">
         <v>11</v>
@@ -3954,13 +3954,13 @@
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="1" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C118" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="D118" t="s">
         <v>11</v>
@@ -3977,10 +3977,10 @@
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C119" t="s">
         <v>11</v>
@@ -4000,7 +4000,7 @@
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="1" t="s">
-        <v>150</v>
+        <v>87</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>10</v>
@@ -4023,13 +4023,13 @@
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="1" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="C121" t="s">
+        <v>11</v>
       </c>
       <c r="D121" t="s">
         <v>11</v>
@@ -4046,13 +4046,13 @@
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="1" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>104</v>
+        <v>15</v>
+      </c>
+      <c r="C122" t="s">
+        <v>11</v>
       </c>
       <c r="D122" t="s">
         <v>11</v>
@@ -4069,10 +4069,10 @@
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="1" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C123" t="s">
         <v>11</v>
@@ -4092,13 +4092,13 @@
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D124" t="s">
         <v>11</v>
@@ -4115,13 +4115,13 @@
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="1" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="D125" t="s">
         <v>11</v>
@@ -4138,13 +4138,13 @@
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="1" t="s">
-        <v>156</v>
+        <v>13</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>104</v>
+        <v>10</v>
+      </c>
+      <c r="C126" t="s">
+        <v>11</v>
       </c>
       <c r="D126" t="s">
         <v>11</v>
@@ -4160,14 +4160,14 @@
       </c>
     </row>
     <row r="127" spans="1:7">
-      <c r="A127" t="s">
-        <v>157</v>
+      <c r="A127" s="1" t="s">
+        <v>149</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C127" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="D127" t="s">
         <v>11</v>
@@ -4183,11 +4183,11 @@
       </c>
     </row>
     <row r="128" spans="1:7">
-      <c r="A128" t="s">
-        <v>158</v>
+      <c r="A128" s="1" t="s">
+        <v>150</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C128" t="s">
         <v>11</v>
@@ -4206,14 +4206,14 @@
       </c>
     </row>
     <row r="129" spans="1:7">
-      <c r="A129" s="1" t="s">
-        <v>159</v>
+      <c r="A129" t="s">
+        <v>151</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>104</v>
+        <v>10</v>
+      </c>
+      <c r="C129" t="s">
+        <v>11</v>
       </c>
       <c r="D129" t="s">
         <v>11</v>
@@ -4229,14 +4229,14 @@
       </c>
     </row>
     <row r="130" spans="1:7">
-      <c r="A130" s="1" t="s">
-        <v>160</v>
+      <c r="A130" t="s">
+        <v>152</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>31</v>
+        <v>45</v>
+      </c>
+      <c r="C130" t="s">
+        <v>11</v>
       </c>
       <c r="D130" t="s">
         <v>11</v>
@@ -4253,13 +4253,13 @@
     </row>
     <row r="131" spans="1:7">
       <c r="A131" s="1" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C131" t="s">
-        <v>11</v>
+      <c r="C131" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="D131" t="s">
         <v>11</v>
@@ -4276,7 +4276,7 @@
     </row>
     <row r="132" spans="1:7">
       <c r="A132" s="1" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>10</v>
@@ -4298,14 +4298,14 @@
       </c>
     </row>
     <row r="133" spans="1:7">
-      <c r="A133" s="1" t="s">
-        <v>163</v>
+      <c r="A133" t="s">
+        <v>154</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>24</v>
+        <v>62</v>
+      </c>
+      <c r="C133" t="s">
+        <v>11</v>
       </c>
       <c r="D133" t="s">
         <v>11</v>
@@ -4322,13 +4322,13 @@
     </row>
     <row r="134" spans="1:7">
       <c r="A134" s="1" t="s">
-        <v>63</v>
+        <v>155</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
+      </c>
+      <c r="C134" t="s">
+        <v>11</v>
       </c>
       <c r="D134" t="s">
         <v>11</v>
@@ -4345,10 +4345,10 @@
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="1" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C135" t="s">
         <v>11</v>
@@ -4368,13 +4368,13 @@
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="1" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>166</v>
+        <v>54</v>
       </c>
       <c r="D136" t="s">
         <v>11</v>
@@ -4391,13 +4391,13 @@
     </row>
     <row r="137" spans="1:7">
       <c r="A137" s="1" t="s">
-        <v>96</v>
+        <v>158</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C137" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="D137" t="s">
         <v>11</v>
@@ -4414,10 +4414,10 @@
     </row>
     <row r="138" spans="1:7">
       <c r="A138" s="1" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C138" t="s">
         <v>11</v>
@@ -4437,10 +4437,10 @@
     </row>
     <row r="139" spans="1:7">
       <c r="A139" s="1" t="s">
-        <v>166</v>
+        <v>131</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C139" t="s">
         <v>11</v>
@@ -4459,14 +4459,14 @@
       </c>
     </row>
     <row r="140" spans="1:7">
-      <c r="A140" t="s">
-        <v>168</v>
+      <c r="A140" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C140" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="D140" t="s">
         <v>11</v>
@@ -4483,13 +4483,13 @@
     </row>
     <row r="141" spans="1:7">
       <c r="A141" s="1" t="s">
-        <v>169</v>
+        <v>58</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C141" t="s">
-        <v>11</v>
+      <c r="C141" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="D141" t="s">
         <v>11</v>
@@ -4505,14 +4505,14 @@
       </c>
     </row>
     <row r="142" spans="1:7">
-      <c r="A142" t="s">
-        <v>170</v>
+      <c r="A142" s="1" t="s">
+        <v>161</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C142" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="D142" t="s">
         <v>11</v>
@@ -4529,10 +4529,10 @@
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="1" t="s">
-        <v>171</v>
+        <v>101</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C143" t="s">
         <v>11</v>
@@ -4552,13 +4552,13 @@
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="1" t="s">
-        <v>172</v>
+        <v>47</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="C144" t="s">
+        <v>11</v>
       </c>
       <c r="D144" t="s">
         <v>11</v>
@@ -4575,13 +4575,13 @@
     </row>
     <row r="145" spans="1:7">
       <c r="A145" s="1" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="D145" t="s">
         <v>11</v>
@@ -4598,10 +4598,10 @@
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="1" t="s">
-        <v>111</v>
+        <v>163</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="C146" t="s">
         <v>11</v>
@@ -4620,11 +4620,11 @@
       </c>
     </row>
     <row r="147" spans="1:7">
-      <c r="A147" t="s">
-        <v>174</v>
+      <c r="A147" s="1" t="s">
+        <v>164</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C147" t="s">
         <v>11</v>
@@ -4644,10 +4644,10 @@
     </row>
     <row r="148" spans="1:7">
       <c r="A148" s="1" t="s">
-        <v>148</v>
+        <v>60</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C148" t="s">
         <v>11</v>
@@ -4667,13 +4667,13 @@
     </row>
     <row r="149" spans="1:7">
       <c r="A149" s="1" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C149" s="1" t="s">
-        <v>104</v>
+        <v>22</v>
+      </c>
+      <c r="C149" t="s">
+        <v>11</v>
       </c>
       <c r="D149" t="s">
         <v>11</v>
@@ -4690,10 +4690,10 @@
     </row>
     <row r="150" spans="1:7">
       <c r="A150" s="1" t="s">
-        <v>176</v>
+        <v>91</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C150" t="s">
         <v>11</v>
@@ -4713,10 +4713,10 @@
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="1" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C151" t="s">
         <v>11</v>
@@ -4736,13 +4736,13 @@
     </row>
     <row r="152" spans="1:7">
       <c r="A152" s="1" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="C152" t="s">
+        <v>11</v>
       </c>
       <c r="D152" t="s">
         <v>11</v>
@@ -4759,13 +4759,13 @@
     </row>
     <row r="153" spans="1:7">
       <c r="A153" s="1" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C153" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="C153" t="s">
+        <v>11</v>
       </c>
       <c r="D153" t="s">
         <v>11</v>
@@ -4782,10 +4782,10 @@
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="1" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="C154" t="s">
         <v>11</v>
@@ -4805,10 +4805,10 @@
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="1" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C155" t="s">
         <v>11</v>
@@ -4827,11 +4827,11 @@
       </c>
     </row>
     <row r="156" spans="1:7">
-      <c r="A156" s="1" t="s">
-        <v>182</v>
+      <c r="A156" t="s">
+        <v>171</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="C156" t="s">
         <v>11</v>
@@ -4851,13 +4851,13 @@
     </row>
     <row r="157" spans="1:7">
       <c r="A157" s="1" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C157" s="1" t="s">
-        <v>63</v>
+        <v>92</v>
+      </c>
+      <c r="C157" t="s">
+        <v>11</v>
       </c>
       <c r="D157" t="s">
         <v>11</v>
@@ -4874,10 +4874,10 @@
     </row>
     <row r="158" spans="1:7">
       <c r="A158" s="1" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C158" t="s">
         <v>11</v>
@@ -4896,11 +4896,11 @@
       </c>
     </row>
     <row r="159" spans="1:7">
-      <c r="A159" t="s">
-        <v>185</v>
+      <c r="A159" s="1" t="s">
+        <v>174</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C159" t="s">
         <v>11</v>
@@ -4920,13 +4920,13 @@
     </row>
     <row r="160" spans="1:7">
       <c r="A160" s="1" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="D160" t="s">
         <v>11</v>
@@ -4942,14 +4942,14 @@
       </c>
     </row>
     <row r="161" spans="1:7">
-      <c r="A161" t="s">
-        <v>187</v>
+      <c r="A161" s="1" t="s">
+        <v>176</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C161" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="D161" t="s">
         <v>11</v>
@@ -4966,13 +4966,13 @@
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="1" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C162" t="s">
-        <v>11</v>
+      <c r="C162" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="D162" t="s">
         <v>11</v>
@@ -4988,11 +4988,11 @@
       </c>
     </row>
     <row r="163" spans="1:7">
-      <c r="A163" s="1" t="s">
-        <v>120</v>
+      <c r="A163" t="s">
+        <v>179</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="C163" t="s">
         <v>11</v>
@@ -5012,10 +5012,10 @@
     </row>
     <row r="164" spans="1:7">
       <c r="A164" s="1" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C164" t="s">
         <v>11</v>
@@ -5035,7 +5035,7 @@
     </row>
     <row r="165" spans="1:7">
       <c r="A165" s="1" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>10</v>
@@ -5058,13 +5058,13 @@
     </row>
     <row r="166" spans="1:7">
       <c r="A166" s="1" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C166" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="D166" t="s">
         <v>11</v>
@@ -5081,10 +5081,10 @@
     </row>
     <row r="167" spans="1:7">
       <c r="A167" s="1" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="C167" t="s">
         <v>11</v>
@@ -5104,10 +5104,10 @@
     </row>
     <row r="168" spans="1:7">
       <c r="A168" s="1" t="s">
-        <v>84</v>
+        <v>184</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="C168" t="s">
         <v>11</v>
@@ -5126,11 +5126,11 @@
       </c>
     </row>
     <row r="169" spans="1:7">
-      <c r="A169" t="s">
-        <v>193</v>
+      <c r="A169" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C169" t="s">
         <v>11</v>
@@ -5150,10 +5150,10 @@
     </row>
     <row r="170" spans="1:7">
       <c r="A170" s="1" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="C170" t="s">
         <v>11</v>
@@ -5173,13 +5173,13 @@
     </row>
     <row r="171" spans="1:7">
       <c r="A171" s="1" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D171" t="s">
         <v>11</v>
@@ -5196,13 +5196,13 @@
     </row>
     <row r="172" spans="1:7">
       <c r="A172" s="1" t="s">
-        <v>196</v>
+        <v>143</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C172" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="D172" t="s">
         <v>11</v>
@@ -5219,13 +5219,13 @@
     </row>
     <row r="173" spans="1:7">
       <c r="A173" s="1" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C173" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="D173" t="s">
         <v>11</v>
@@ -5241,14 +5241,14 @@
       </c>
     </row>
     <row r="174" spans="1:7">
-      <c r="A174" t="s">
-        <v>198</v>
+      <c r="A174" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C174" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="D174" t="s">
         <v>11</v>
@@ -5264,8 +5264,8 @@
       </c>
     </row>
     <row r="175" spans="1:7">
-      <c r="A175" s="1" t="s">
-        <v>199</v>
+      <c r="A175" t="s">
+        <v>189</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>10</v>
@@ -5288,10 +5288,10 @@
     </row>
     <row r="176" spans="1:7">
       <c r="A176" s="1" t="s">
-        <v>139</v>
+        <v>190</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C176" t="s">
         <v>11</v>
@@ -5311,10 +5311,10 @@
     </row>
     <row r="177" spans="1:7">
       <c r="A177" s="1" t="s">
-        <v>200</v>
+        <v>172</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C177" t="s">
         <v>11</v>
@@ -5334,13 +5334,13 @@
     </row>
     <row r="178" spans="1:7">
       <c r="A178" s="1" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C178" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="D178" t="s">
         <v>11</v>
@@ -5357,10 +5357,10 @@
     </row>
     <row r="179" spans="1:7">
       <c r="A179" s="1" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C179" t="s">
         <v>11</v>
@@ -5380,10 +5380,10 @@
     </row>
     <row r="180" spans="1:7">
       <c r="A180" s="1" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C180" t="s">
         <v>11</v>
@@ -5402,11 +5402,11 @@
       </c>
     </row>
     <row r="181" spans="1:7">
-      <c r="A181" s="1" t="s">
-        <v>104</v>
+      <c r="A181" t="s">
+        <v>194</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="C181" t="s">
         <v>11</v>
@@ -5426,13 +5426,13 @@
     </row>
     <row r="182" spans="1:7">
       <c r="A182" s="1" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="D182" t="s">
         <v>11</v>
@@ -5449,10 +5449,10 @@
     </row>
     <row r="183" spans="1:7">
       <c r="A183" s="1" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>34</v>
+        <v>92</v>
       </c>
       <c r="C183" t="s">
         <v>11</v>
@@ -5471,11 +5471,11 @@
       </c>
     </row>
     <row r="184" spans="1:7">
-      <c r="A184" t="s">
-        <v>206</v>
+      <c r="A184" s="1" t="s">
+        <v>197</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C184" t="s">
         <v>11</v>
@@ -5495,14 +5495,14 @@
     </row>
     <row r="185" spans="1:7">
       <c r="A185" s="1" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C185" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="C185" t="s">
+        <v>11</v>
+      </c>
       <c r="D185" t="s">
         <v>11</v>
       </c>
@@ -5517,11 +5517,11 @@
       </c>
     </row>
     <row r="186" spans="1:7">
-      <c r="A186" s="1" t="s">
-        <v>208</v>
+      <c r="A186" t="s">
+        <v>199</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="C186" t="s">
         <v>11</v>
@@ -5541,13 +5541,13 @@
     </row>
     <row r="187" spans="1:7">
       <c r="A187" s="1" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C187" t="s">
-        <v>11</v>
+      <c r="C187" s="1" t="s">
+        <v>201</v>
       </c>
       <c r="D187" t="s">
         <v>11</v>
@@ -5564,10 +5564,10 @@
     </row>
     <row r="188" spans="1:7">
       <c r="A188" s="1" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="C188" t="s">
         <v>11</v>
@@ -5587,13 +5587,13 @@
     </row>
     <row r="189" spans="1:7">
       <c r="A189" s="1" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C189" s="1" t="s">
-        <v>166</v>
+        <v>15</v>
+      </c>
+      <c r="C189" t="s">
+        <v>11</v>
       </c>
       <c r="D189" t="s">
         <v>11</v>
@@ -5609,11 +5609,11 @@
       </c>
     </row>
     <row r="190" spans="1:7">
-      <c r="A190" t="s">
-        <v>212</v>
+      <c r="A190" s="1" t="s">
+        <v>204</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C190" t="s">
         <v>11</v>
@@ -5632,11 +5632,11 @@
       </c>
     </row>
     <row r="191" spans="1:7">
-      <c r="A191" t="s">
-        <v>213</v>
+      <c r="A191" s="1" t="s">
+        <v>205</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C191" t="s">
         <v>11</v>
@@ -5656,13 +5656,13 @@
     </row>
     <row r="192" spans="1:7">
       <c r="A192" s="1" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C192" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="D192" t="s">
         <v>11</v>
@@ -5678,11 +5678,11 @@
       </c>
     </row>
     <row r="193" spans="1:7">
-      <c r="A193" t="s">
-        <v>215</v>
+      <c r="A193" s="1" t="s">
+        <v>207</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C193" t="s">
         <v>11</v>
@@ -5702,13 +5702,13 @@
     </row>
     <row r="194" spans="1:7">
       <c r="A194" s="1" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C194" s="1" t="s">
-        <v>82</v>
+        <v>22</v>
+      </c>
+      <c r="C194" t="s">
+        <v>11</v>
       </c>
       <c r="D194" t="s">
         <v>11</v>
@@ -5725,13 +5725,13 @@
     </row>
     <row r="195" spans="1:7">
       <c r="A195" s="1" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="D195" t="s">
         <v>11</v>
@@ -5748,10 +5748,10 @@
     </row>
     <row r="196" spans="1:7">
       <c r="A196" s="1" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C196" t="s">
         <v>11</v>
@@ -5771,13 +5771,13 @@
     </row>
     <row r="197" spans="1:7">
       <c r="A197" s="1" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C197" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="D197" t="s">
         <v>11</v>
@@ -5794,10 +5794,10 @@
     </row>
     <row r="198" spans="1:7">
       <c r="A198" s="1" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C198" t="s">
         <v>11</v>
@@ -5816,11 +5816,11 @@
       </c>
     </row>
     <row r="199" spans="1:7">
-      <c r="A199" s="1" t="s">
-        <v>221</v>
+      <c r="A199" t="s">
+        <v>213</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C199" t="s">
         <v>11</v>
@@ -5840,13 +5840,13 @@
     </row>
     <row r="200" spans="1:7">
       <c r="A200" s="1" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C200" t="s">
-        <v>11</v>
+      <c r="C200" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="D200" t="s">
         <v>11</v>
@@ -5863,13 +5863,13 @@
     </row>
     <row r="201" spans="1:7">
       <c r="A201" s="1" t="s">
-        <v>130</v>
+        <v>215</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C201" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="D201" t="s">
         <v>11</v>
@@ -5885,14 +5885,14 @@
       </c>
     </row>
     <row r="202" spans="1:7">
-      <c r="A202" t="s">
-        <v>223</v>
+      <c r="A202" s="1" t="s">
+        <v>216</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C202" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="D202" t="s">
         <v>11</v>
@@ -5908,11 +5908,11 @@
       </c>
     </row>
     <row r="203" spans="1:7">
-      <c r="A203" s="1" t="s">
-        <v>224</v>
+      <c r="A203" t="s">
+        <v>217</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>119</v>
+        <v>45</v>
       </c>
       <c r="C203" t="s">
         <v>11</v>
@@ -5932,13 +5932,13 @@
     </row>
     <row r="204" spans="1:7">
       <c r="A204" s="1" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D204" t="s">
         <v>11</v>
@@ -5955,13 +5955,13 @@
     </row>
     <row r="205" spans="1:7">
       <c r="A205" s="1" t="s">
-        <v>150</v>
+        <v>219</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C205" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="D205" t="s">
         <v>11</v>
@@ -5978,10 +5978,10 @@
     </row>
     <row r="206" spans="1:7">
       <c r="A206" s="1" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C206" t="s">
         <v>11</v>
@@ -6001,10 +6001,10 @@
     </row>
     <row r="207" spans="1:7">
       <c r="A207" s="1" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>10</v>
+        <v>222</v>
       </c>
       <c r="C207" t="s">
         <v>11</v>
@@ -6024,13 +6024,13 @@
     </row>
     <row r="208" spans="1:7">
       <c r="A208" s="1" t="s">
-        <v>228</v>
+        <v>42</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C208" t="s">
-        <v>11</v>
+      <c r="C208" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="D208" t="s">
         <v>11</v>
@@ -6047,10 +6047,10 @@
     </row>
     <row r="209" spans="1:7">
       <c r="A209" s="1" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="C209" t="s">
         <v>11</v>
@@ -6070,13 +6070,13 @@
     </row>
     <row r="210" spans="1:7">
       <c r="A210" s="1" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="D210" t="s">
         <v>11</v>
@@ -6093,13 +6093,13 @@
     </row>
     <row r="211" spans="1:7">
       <c r="A211" s="1" t="s">
-        <v>231</v>
+        <v>25</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C211" s="1" t="s">
-        <v>66</v>
+        <v>10</v>
+      </c>
+      <c r="C211" t="s">
+        <v>11</v>
       </c>
       <c r="D211" t="s">
         <v>11</v>
@@ -6115,11 +6115,11 @@
       </c>
     </row>
     <row r="212" spans="1:7">
-      <c r="A212" t="s">
-        <v>232</v>
+      <c r="A212" s="1" t="s">
+        <v>221</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>17</v>
+        <v>225</v>
       </c>
       <c r="C212" t="s">
         <v>11</v>
@@ -6139,13 +6139,13 @@
     </row>
     <row r="213" spans="1:7">
       <c r="A213" s="1" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C213" s="1" t="s">
-        <v>130</v>
+        <v>22</v>
+      </c>
+      <c r="C213" t="s">
+        <v>11</v>
       </c>
       <c r="D213" t="s">
         <v>11</v>
@@ -6162,13 +6162,13 @@
     </row>
     <row r="214" spans="1:7">
       <c r="A214" s="1" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C214" t="s">
-        <v>11</v>
+      <c r="C214" s="1" t="s">
+        <v>204</v>
       </c>
       <c r="D214" t="s">
         <v>11</v>
@@ -6184,11 +6184,11 @@
       </c>
     </row>
     <row r="215" spans="1:7">
-      <c r="A215" s="1" t="s">
-        <v>82</v>
+      <c r="A215" t="s">
+        <v>228</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="C215" t="s">
         <v>11</v>
@@ -6208,13 +6208,13 @@
     </row>
     <row r="216" spans="1:7">
       <c r="A216" s="1" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>236</v>
+        <v>135</v>
       </c>
       <c r="D216" t="s">
         <v>11</v>
@@ -6230,11 +6230,11 @@
       </c>
     </row>
     <row r="217" spans="1:7">
-      <c r="A217" s="1" t="s">
-        <v>237</v>
+      <c r="A217" t="s">
+        <v>230</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="C217" t="s">
         <v>11</v>
@@ -6254,10 +6254,10 @@
     </row>
     <row r="218" spans="1:7">
       <c r="A218" s="1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C218" t="s">
         <v>11</v>
@@ -6277,13 +6277,13 @@
     </row>
     <row r="219" spans="1:7">
       <c r="A219" s="1" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C219" t="s">
-        <v>11</v>
+      <c r="C219" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="D219" t="s">
         <v>11</v>
@@ -6299,11 +6299,11 @@
       </c>
     </row>
     <row r="220" spans="1:7">
-      <c r="A220" s="1" t="s">
-        <v>240</v>
+      <c r="A220" t="s">
+        <v>233</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C220" t="s">
         <v>11</v>
@@ -6323,10 +6323,10 @@
     </row>
     <row r="221" spans="1:7">
       <c r="A221" s="1" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C221" t="s">
         <v>11</v>
@@ -6346,13 +6346,13 @@
     </row>
     <row r="222" spans="1:7">
       <c r="A222" s="1" t="s">
-        <v>26</v>
+        <v>235</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C222" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="D222" t="s">
         <v>11</v>
@@ -6369,10 +6369,10 @@
     </row>
     <row r="223" spans="1:7">
       <c r="A223" s="1" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C223" t="s">
         <v>11</v>
@@ -6392,10 +6392,10 @@
     </row>
     <row r="224" spans="1:7">
       <c r="A224" s="1" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C224" t="s">
         <v>11</v>
@@ -6415,10 +6415,10 @@
     </row>
     <row r="225" spans="1:7">
       <c r="A225" s="1" t="s">
-        <v>22</v>
+        <v>238</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>119</v>
+        <v>15</v>
       </c>
       <c r="C225" t="s">
         <v>11</v>
@@ -6438,13 +6438,13 @@
     </row>
     <row r="226" spans="1:7">
       <c r="A226" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C226" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="C226" t="s">
+        <v>11</v>
       </c>
       <c r="D226" t="s">
         <v>11</v>
@@ -6461,13 +6461,13 @@
     </row>
     <row r="227" spans="1:7">
       <c r="A227" s="1" t="s">
-        <v>69</v>
+        <v>240</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C227" s="1" t="s">
-        <v>55</v>
+        <v>15</v>
+      </c>
+      <c r="C227" t="s">
+        <v>11</v>
       </c>
       <c r="D227" t="s">
         <v>11</v>
@@ -6484,13 +6484,13 @@
     </row>
     <row r="228" spans="1:7">
       <c r="A228" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>236</v>
+        <v>65</v>
       </c>
       <c r="D228" t="s">
         <v>11</v>
@@ -6507,10 +6507,10 @@
     </row>
     <row r="229" spans="1:7">
       <c r="A229" s="1" t="s">
-        <v>246</v>
+        <v>54</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="C229" t="s">
         <v>11</v>
@@ -6529,11 +6529,11 @@
       </c>
     </row>
     <row r="230" spans="1:7">
-      <c r="A230" t="s">
-        <v>247</v>
+      <c r="A230" s="1" t="s">
+        <v>242</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="C230" t="s">
         <v>11</v>
@@ -6552,11 +6552,11 @@
       </c>
     </row>
     <row r="231" spans="1:7">
-      <c r="A231" s="1" t="s">
-        <v>248</v>
+      <c r="A231" t="s">
+        <v>243</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="C231" t="s">
         <v>11</v>
@@ -6576,13 +6576,13 @@
     </row>
     <row r="232" spans="1:7">
       <c r="A232" s="1" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C232" s="1" t="s">
-        <v>66</v>
+        <v>15</v>
+      </c>
+      <c r="C232" t="s">
+        <v>11</v>
       </c>
       <c r="D232" t="s">
         <v>11</v>
@@ -6599,13 +6599,13 @@
     </row>
     <row r="233" spans="1:7">
       <c r="A233" s="1" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C233" t="s">
-        <v>11</v>
+      <c r="C233" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="D233" t="s">
         <v>11</v>
@@ -6622,10 +6622,10 @@
     </row>
     <row r="234" spans="1:7">
       <c r="A234" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="C234" t="s">
         <v>11</v>
@@ -6645,13 +6645,13 @@
     </row>
     <row r="235" spans="1:7">
       <c r="A235" s="1" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C235" s="1" t="s">
-        <v>148</v>
+        <v>15</v>
+      </c>
+      <c r="C235" t="s">
+        <v>11</v>
       </c>
       <c r="D235" t="s">
         <v>11</v>
@@ -6667,11 +6667,11 @@
       </c>
     </row>
     <row r="236" spans="1:7">
-      <c r="A236" t="s">
-        <v>253</v>
+      <c r="A236" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="C236" t="s">
         <v>11</v>
@@ -6691,13 +6691,13 @@
     </row>
     <row r="237" spans="1:7">
       <c r="A237" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C237" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>249</v>
       </c>
       <c r="D237" t="s">
         <v>11</v>
@@ -6714,13 +6714,13 @@
     </row>
     <row r="238" spans="1:7">
       <c r="A238" s="1" t="s">
-        <v>182</v>
+        <v>250</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C238" t="s">
-        <v>11</v>
+      <c r="C238" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="D238" t="s">
         <v>11</v>
@@ -6737,13 +6737,13 @@
     </row>
     <row r="239" spans="1:7">
       <c r="A239" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="D239" t="s">
         <v>11</v>
@@ -6760,10 +6760,10 @@
     </row>
     <row r="240" spans="1:7">
       <c r="A240" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C240" t="s">
         <v>11</v>
@@ -6783,10 +6783,10 @@
     </row>
     <row r="241" spans="1:7">
       <c r="A241" s="1" t="s">
-        <v>123</v>
+        <v>253</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>119</v>
+        <v>15</v>
       </c>
       <c r="C241" t="s">
         <v>11</v>
@@ -6806,10 +6806,10 @@
     </row>
     <row r="242" spans="1:7">
       <c r="A242" s="1" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C242" t="s">
         <v>11</v>
@@ -6829,13 +6829,13 @@
     </row>
     <row r="243" spans="1:7">
       <c r="A243" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B243" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C243" t="s">
-        <v>11</v>
+      <c r="C243" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="D243" t="s">
         <v>11</v>
@@ -6852,13 +6852,13 @@
     </row>
     <row r="244" spans="1:7">
       <c r="A244" s="1" t="s">
-        <v>42</v>
+        <v>255</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>26</v>
+        <v>178</v>
       </c>
       <c r="D244" t="s">
         <v>11</v>
@@ -6875,10 +6875,10 @@
     </row>
     <row r="245" spans="1:7">
       <c r="A245" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C245" t="s">
         <v>11</v>
@@ -6898,10 +6898,10 @@
     </row>
     <row r="246" spans="1:7">
       <c r="A246" s="1" t="s">
-        <v>259</v>
+        <v>164</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C246" t="s">
         <v>11</v>
@@ -6921,13 +6921,13 @@
     </row>
     <row r="247" spans="1:7">
       <c r="A247" s="1" t="s">
-        <v>260</v>
+        <v>201</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C247" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
+      </c>
+      <c r="C247" t="s">
+        <v>11</v>
       </c>
       <c r="D247" t="s">
         <v>11</v>
@@ -6943,11 +6943,11 @@
       </c>
     </row>
     <row r="248" spans="1:7">
-      <c r="A248" t="s">
-        <v>261</v>
+      <c r="A248" s="1" t="s">
+        <v>257</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C248" t="s">
         <v>11</v>
@@ -6966,14 +6966,14 @@
       </c>
     </row>
     <row r="249" spans="1:7">
-      <c r="A249" t="s">
-        <v>262</v>
+      <c r="A249" s="1" t="s">
+        <v>258</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C249" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="D249" t="s">
         <v>11</v>
@@ -6990,13 +6990,13 @@
     </row>
     <row r="250" spans="1:7">
       <c r="A250" s="1" t="s">
-        <v>190</v>
+        <v>259</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C250" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="D250" t="s">
         <v>11</v>
@@ -7013,10 +7013,10 @@
     </row>
     <row r="251" spans="1:7">
       <c r="A251" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="C251" t="s">
         <v>11</v>
@@ -7036,10 +7036,10 @@
     </row>
     <row r="252" spans="1:7">
       <c r="A252" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C252" t="s">
         <v>11</v>
@@ -7059,13 +7059,13 @@
     </row>
     <row r="253" spans="1:7">
       <c r="A253" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C253" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="C253" t="s">
+        <v>11</v>
       </c>
       <c r="D253" t="s">
         <v>11</v>
@@ -7082,13 +7082,13 @@
     </row>
     <row r="254" spans="1:7">
       <c r="A254" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C254" s="1" t="s">
-        <v>69</v>
+        <v>15</v>
+      </c>
+      <c r="C254" t="s">
+        <v>11</v>
       </c>
       <c r="D254" t="s">
         <v>11</v>
@@ -7105,13 +7105,13 @@
     </row>
     <row r="255" spans="1:7">
       <c r="A255" s="1" t="s">
-        <v>188</v>
+        <v>264</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C255" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="D255" t="s">
         <v>11</v>
@@ -7127,11 +7127,11 @@
       </c>
     </row>
     <row r="256" spans="1:7">
-      <c r="A256" t="s">
-        <v>267</v>
+      <c r="A256" s="1" t="s">
+        <v>265</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C256" t="s">
         <v>11</v>
@@ -7151,13 +7151,13 @@
     </row>
     <row r="257" spans="1:7">
       <c r="A257" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C257" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="D257" t="s">
         <v>11</v>
@@ -7174,13 +7174,13 @@
     </row>
     <row r="258" spans="1:7">
       <c r="A258" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C258" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="D258" t="s">
         <v>11</v>
@@ -7196,11 +7196,11 @@
       </c>
     </row>
     <row r="259" spans="1:7">
-      <c r="A259" s="1" t="s">
-        <v>270</v>
+      <c r="A259" t="s">
+        <v>268</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="C259" t="s">
         <v>11</v>
@@ -7220,13 +7220,13 @@
     </row>
     <row r="260" spans="1:7">
       <c r="A260" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C260" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="D260" t="s">
         <v>11</v>
@@ -7243,10 +7243,10 @@
     </row>
     <row r="261" spans="1:7">
       <c r="A261" s="1" t="s">
-        <v>272</v>
+        <v>196</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C261" t="s">
         <v>11</v>
@@ -7266,13 +7266,13 @@
     </row>
     <row r="262" spans="1:7">
       <c r="A262" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C262" s="1" t="s">
-        <v>82</v>
+        <v>15</v>
+      </c>
+      <c r="C262" t="s">
+        <v>11</v>
       </c>
       <c r="D262" t="s">
         <v>11</v>
@@ -7289,13 +7289,13 @@
     </row>
     <row r="263" spans="1:7">
       <c r="A263" s="1" t="s">
-        <v>274</v>
+        <v>249</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C263" s="1" t="s">
-        <v>46</v>
+        <v>10</v>
+      </c>
+      <c r="C263" t="s">
+        <v>11</v>
       </c>
       <c r="D263" t="s">
         <v>11</v>
@@ -7312,13 +7312,13 @@
     </row>
     <row r="264" spans="1:7">
       <c r="A264" s="1" t="s">
-        <v>75</v>
+        <v>271</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C264" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="C264" t="s">
+        <v>11</v>
       </c>
       <c r="D264" t="s">
         <v>11</v>
@@ -7335,10 +7335,10 @@
     </row>
     <row r="265" spans="1:7">
       <c r="A265" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C265" t="s">
         <v>11</v>
@@ -7358,13 +7358,13 @@
     </row>
     <row r="266" spans="1:7">
       <c r="A266" s="1" t="s">
-        <v>77</v>
+        <v>273</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C266" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="D266" t="s">
         <v>11</v>
@@ -7381,10 +7381,10 @@
     </row>
     <row r="267" spans="1:7">
       <c r="A267" s="1" t="s">
-        <v>276</v>
+        <v>137</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C267" t="s">
         <v>11</v>
@@ -7403,11 +7403,11 @@
       </c>
     </row>
     <row r="268" spans="1:7">
-      <c r="A268" s="1" t="s">
-        <v>277</v>
+      <c r="A268" t="s">
+        <v>274</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C268" t="s">
         <v>11</v>
@@ -7427,13 +7427,13 @@
     </row>
     <row r="269" spans="1:7">
       <c r="A269" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="D269" t="s">
         <v>11</v>
@@ -7450,13 +7450,13 @@
     </row>
     <row r="270" spans="1:7">
       <c r="A270" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C270" s="1" t="s">
-        <v>148</v>
+        <v>20</v>
+      </c>
+      <c r="C270" t="s">
+        <v>11</v>
       </c>
       <c r="D270" t="s">
         <v>11</v>
@@ -7473,10 +7473,10 @@
     </row>
     <row r="271" spans="1:7">
       <c r="A271" s="1" t="s">
-        <v>280</v>
+        <v>18</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="C271" t="s">
         <v>11</v>
@@ -7496,13 +7496,13 @@
     </row>
     <row r="272" spans="1:7">
       <c r="A272" s="1" t="s">
-        <v>281</v>
+        <v>178</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C272" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="D272" t="s">
         <v>11</v>
@@ -7519,13 +7519,13 @@
     </row>
     <row r="273" spans="1:7">
       <c r="A273" s="1" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C273" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="D273" t="s">
         <v>11</v>
@@ -7542,13 +7542,13 @@
     </row>
     <row r="274" spans="1:7">
       <c r="A274" s="1" t="s">
-        <v>24</v>
+        <v>278</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>166</v>
+        <v>201</v>
       </c>
       <c r="D274" t="s">
         <v>11</v>
@@ -7565,13 +7565,13 @@
     </row>
     <row r="275" spans="1:7">
       <c r="A275" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C275" s="1" t="s">
-        <v>258</v>
+        <v>15</v>
+      </c>
+      <c r="C275" t="s">
+        <v>11</v>
       </c>
       <c r="D275" t="s">
         <v>11</v>
@@ -7587,14 +7587,14 @@
       </c>
     </row>
     <row r="276" spans="1:7">
-      <c r="A276" s="1" t="s">
-        <v>284</v>
+      <c r="A276" t="s">
+        <v>280</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C276" s="1" t="s">
-        <v>66</v>
+        <v>45</v>
+      </c>
+      <c r="C276" t="s">
+        <v>11</v>
       </c>
       <c r="D276" t="s">
         <v>11</v>
@@ -7611,10 +7611,10 @@
     </row>
     <row r="277" spans="1:7">
       <c r="A277" s="1" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="C277" t="s">
         <v>11</v>
@@ -7634,10 +7634,10 @@
     </row>
     <row r="278" spans="1:7">
       <c r="A278" s="1" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C278" t="s">
         <v>11</v>
@@ -7657,10 +7657,10 @@
     </row>
     <row r="279" spans="1:7">
       <c r="A279" s="1" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="C279" t="s">
         <v>11</v>
@@ -7680,10 +7680,10 @@
     </row>
     <row r="280" spans="1:7">
       <c r="A280" s="1" t="s">
-        <v>224</v>
+        <v>282</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C280" t="s">
         <v>11</v>
@@ -7703,13 +7703,13 @@
     </row>
     <row r="281" spans="1:7">
       <c r="A281" s="1" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C281" s="1" t="s">
-        <v>258</v>
+        <v>15</v>
+      </c>
+      <c r="C281" t="s">
+        <v>11</v>
       </c>
       <c r="D281" t="s">
         <v>11</v>
@@ -7726,10 +7726,10 @@
     </row>
     <row r="282" spans="1:7">
       <c r="A282" s="1" t="s">
-        <v>57</v>
+        <v>284</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C282" t="s">
         <v>11</v>
@@ -7748,11 +7748,11 @@
       </c>
     </row>
     <row r="283" spans="1:7">
-      <c r="A283" s="1" t="s">
-        <v>288</v>
+      <c r="A283" t="s">
+        <v>285</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C283" t="s">
         <v>11</v>
@@ -7772,10 +7772,10 @@
     </row>
     <row r="284" spans="1:7">
       <c r="A284" s="1" t="s">
-        <v>21</v>
+        <v>286</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C284" t="s">
         <v>11</v>
@@ -7795,13 +7795,13 @@
     </row>
     <row r="285" spans="1:7">
       <c r="A285" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C285" s="1" t="s">
-        <v>78</v>
+        <v>15</v>
+      </c>
+      <c r="C285" t="s">
+        <v>11</v>
       </c>
       <c r="D285" t="s">
         <v>11</v>
@@ -7818,10 +7818,10 @@
     </row>
     <row r="286" spans="1:7">
       <c r="A286" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C286" t="s">
         <v>11</v>
@@ -7841,13 +7841,13 @@
     </row>
     <row r="287" spans="1:7">
       <c r="A287" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C287" s="1" t="s">
-        <v>166</v>
+        <v>10</v>
+      </c>
+      <c r="C287" t="s">
+        <v>11</v>
       </c>
       <c r="D287" t="s">
         <v>11</v>
@@ -7864,10 +7864,10 @@
     </row>
     <row r="288" spans="1:7">
       <c r="A288" s="1" t="s">
-        <v>118</v>
+        <v>19</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C288" t="s">
         <v>11</v>
@@ -7887,13 +7887,13 @@
     </row>
     <row r="289" spans="1:7">
       <c r="A289" s="1" t="s">
-        <v>227</v>
+        <v>290</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C289" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="D289" t="s">
         <v>11</v>
@@ -7910,13 +7910,13 @@
     </row>
     <row r="290" spans="1:7">
       <c r="A290" s="1" t="s">
-        <v>121</v>
+        <v>291</v>
       </c>
       <c r="B290" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C290" t="s">
-        <v>11</v>
+      <c r="C290" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="D290" t="s">
         <v>11</v>
@@ -7936,10 +7936,10 @@
         <v>292</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="D291" t="s">
         <v>11</v>
@@ -7959,7 +7959,7 @@
         <v>293</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C292" t="s">
         <v>11</v>
@@ -7982,7 +7982,7 @@
         <v>294</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C293" t="s">
         <v>11</v>
@@ -8005,10 +8005,10 @@
         <v>295</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C294" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="C294" t="s">
+        <v>11</v>
       </c>
       <c r="D294" t="s">
         <v>11</v>
@@ -8024,11 +8024,11 @@
       </c>
     </row>
     <row r="295" spans="1:7">
-      <c r="A295" s="1" t="s">
-        <v>55</v>
+      <c r="A295" t="s">
+        <v>296</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="C295" t="s">
         <v>11</v>
@@ -8048,10 +8048,10 @@
     </row>
     <row r="296" spans="1:7">
       <c r="A296" s="1" t="s">
-        <v>296</v>
+        <v>180</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C296" t="s">
         <v>11</v>
@@ -8071,655 +8071,655 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" location="Foerderer"/>
-    <hyperlink ref="B2" r:id="rId2" location="DatatypeProperty"/>
-    <hyperlink ref="A3" r:id="rId3" location="Forschungsinfrastrukturart"/>
+    <hyperlink ref="A2" r:id="rId1" location="Publikation"/>
+    <hyperlink ref="B2" r:id="rId2" location="Class"/>
+    <hyperlink ref="A3" r:id="rId3" location="UserAccess"/>
     <hyperlink ref="B3" r:id="rId4" location="Class"/>
-    <hyperlink ref="A4" r:id="rId5" location="Buch"/>
-    <hyperlink ref="B4" r:id="rId6" location="Class"/>
-    <hyperlink ref="C4" r:id="rId7" location="Publikationstyp"/>
-    <hyperlink ref="B5" r:id="rId8" location="List"/>
-    <hyperlink ref="A6" r:id="rId9" location="Ausgruendung"/>
+    <hyperlink ref="C3" r:id="rId5" location="Zugangsart"/>
+    <hyperlink ref="A4" r:id="rId6" location="FoerderkennzeichenDrittmittelprojekt"/>
+    <hyperlink ref="B4" r:id="rId7" location="DatatypeProperty"/>
+    <hyperlink ref="B5" r:id="rId8" location="Class"/>
+    <hyperlink ref="A6" r:id="rId9" location="Qualifikationsschrift"/>
     <hyperlink ref="B6" r:id="rId10" location="Class"/>
-    <hyperlink ref="B7" r:id="rId11" location="Class"/>
-    <hyperlink ref="A8" r:id="rId12" location="GruppeMitHerausgeberfunktion"/>
-    <hyperlink ref="B8" r:id="rId13" location="Class"/>
-    <hyperlink ref="C8" r:id="rId14" location="Schoepfertyp"/>
-    <hyperlink ref="A9" r:id="rId15" location="NameDerOrganisationseinheit"/>
-    <hyperlink ref="B9" r:id="rId16" location="DatatypeProperty"/>
-    <hyperlink ref="A10" r:id="rId17" location="WissenschaftlicheUndKuenstlerischeMitarbeiter"/>
-    <hyperlink ref="B10" r:id="rId18" location="Class"/>
-    <hyperlink ref="C10" r:id="rId19" location="WissenschaftlichesUndKuenstlerischesPersonal"/>
-    <hyperlink ref="A11" r:id="rId20" location="SonstigeDrittmittelgeber"/>
-    <hyperlink ref="B11" r:id="rId21" location="Class"/>
-    <hyperlink ref="C11" r:id="rId22" location="Mittelgeber"/>
-    <hyperlink ref="A12" r:id="rId23" location="Verlagsort"/>
-    <hyperlink ref="B12" r:id="rId24" location="DatatypeProperty"/>
-    <hyperlink ref="A13" r:id="rId25" location="Veroeffentlichungsjahr"/>
-    <hyperlink ref="B13" r:id="rId26" location="DatatypeProperty"/>
-    <hyperlink ref="A14" r:id="rId27" location="Verteilt"/>
-    <hyperlink ref="B14" r:id="rId28" location="Class"/>
-    <hyperlink ref="C14" r:id="rId29" location="Forschungsinfrastrukturart"/>
-    <hyperlink ref="A15" r:id="rId30" location="TitelProjektRedaktionell"/>
-    <hyperlink ref="B15" r:id="rId31" location="DatatypeProperty"/>
-    <hyperlink ref="A16" r:id="rId32" location="NichtErklaert"/>
-    <hyperlink ref="B16" r:id="rId33" location="Class"/>
-    <hyperlink ref="C16" r:id="rId34" location="Mittelgeber"/>
-    <hyperlink ref="A17" r:id="rId35" location="HerausgeberschaftEinesSonderheftsEinerZeitschrift"/>
-    <hyperlink ref="B17" r:id="rId36" location="Class"/>
-    <hyperlink ref="C17" r:id="rId37" location="Publikationstyp"/>
-    <hyperlink ref="A18" r:id="rId38"/>
-    <hyperlink ref="B18" r:id="rId39" location="ObjectProperty"/>
-    <hyperlink ref="A19" r:id="rId40" location="hatErstbetreuer"/>
-    <hyperlink ref="B19" r:id="rId41" location="ObjectProperty"/>
-    <hyperlink ref="A20" r:id="rId42" location="TitelProjektKurz"/>
-    <hyperlink ref="B20" r:id="rId43" location="DatatypeProperty"/>
-    <hyperlink ref="A21" r:id="rId44" location="Sprache"/>
-    <hyperlink ref="B21" r:id="rId45" location="DatatypeProperty"/>
-    <hyperlink ref="A22" r:id="rId46" location="Heft"/>
+    <hyperlink ref="C6" r:id="rId11" location="Publikationstyp"/>
+    <hyperlink ref="A7" r:id="rId12" location="Bewilligungssumme"/>
+    <hyperlink ref="B7" r:id="rId13" location="FunctionalProperty"/>
+    <hyperlink ref="A8" r:id="rId14" location="hatQualifikation"/>
+    <hyperlink ref="B8" r:id="rId15" location="ObjectProperty"/>
+    <hyperlink ref="A9" r:id="rId16"/>
+    <hyperlink ref="B9" r:id="rId17" location="ObjectProperty"/>
+    <hyperlink ref="A10" r:id="rId18" location="Verteilt"/>
+    <hyperlink ref="B10" r:id="rId19" location="Class"/>
+    <hyperlink ref="C10" r:id="rId20" location="Forschungsinfrastrukturart"/>
+    <hyperlink ref="A11" r:id="rId21"/>
+    <hyperlink ref="B11" r:id="rId22" location="AnnotationProperty"/>
+    <hyperlink ref="A12" r:id="rId23" location="Nutzung"/>
+    <hyperlink ref="B12" r:id="rId24" location="Class"/>
+    <hyperlink ref="A13" r:id="rId25" location="WissenschaftlichesUndKuenstlerischesPersonal"/>
+    <hyperlink ref="B13" r:id="rId26" location="Class"/>
+    <hyperlink ref="C13" r:id="rId27" location="Personalkategorie"/>
+    <hyperlink ref="A14" r:id="rId28" location="TitelPatent"/>
+    <hyperlink ref="B14" r:id="rId29" location="FunctionalProperty"/>
+    <hyperlink ref="B15" r:id="rId30" location="Class"/>
+    <hyperlink ref="A16" r:id="rId31" location="Qualifikation"/>
+    <hyperlink ref="B16" r:id="rId32" location="Class"/>
+    <hyperlink ref="A17" r:id="rId33" location="Dissertation"/>
+    <hyperlink ref="B17" r:id="rId34" location="Class"/>
+    <hyperlink ref="C17" r:id="rId35" location="Qualifikationsschrift"/>
+    <hyperlink ref="A18" r:id="rId36" location="AltersgruppeBeiAbschluss"/>
+    <hyperlink ref="B18" r:id="rId37" location="DatatypeProperty"/>
+    <hyperlink ref="A19" r:id="rId38" location="Patent"/>
+    <hyperlink ref="B19" r:id="rId39" location="Class"/>
+    <hyperlink ref="A20" r:id="rId40" location="Artikel"/>
+    <hyperlink ref="B20" r:id="rId41" location="Class"/>
+    <hyperlink ref="C20" r:id="rId42" location="Publikationstyp"/>
+    <hyperlink ref="A21" r:id="rId43" location="Universitaet"/>
+    <hyperlink ref="B21" r:id="rId44" location="Class"/>
+    <hyperlink ref="C21" r:id="rId45" location="Promotionskooperationspartner"/>
+    <hyperlink ref="A22" r:id="rId46" location="Konferenzname"/>
     <hyperlink ref="B22" r:id="rId47" location="DatatypeProperty"/>
-    <hyperlink ref="A23" r:id="rId48" location="NameDerQuelle"/>
-    <hyperlink ref="B23" r:id="rId49" location="DatatypeProperty"/>
-    <hyperlink ref="B24" r:id="rId50" location="Class"/>
-    <hyperlink ref="A25" r:id="rId51" location="EU"/>
-    <hyperlink ref="B25" r:id="rId52" location="Class"/>
-    <hyperlink ref="C25" r:id="rId53" location="EuUndSonstigeInternationaleOrganisationen"/>
-    <hyperlink ref="A26" r:id="rId54" location="precedingWork"/>
-    <hyperlink ref="B26" r:id="rId55" location="TransitiveProperty"/>
-    <hyperlink ref="A27" r:id="rId56" location="HauptberuflicheGastprofessoren"/>
-    <hyperlink ref="B27" r:id="rId57" location="Class"/>
-    <hyperlink ref="C27" r:id="rId58" location="SonstigeProfessoren"/>
-    <hyperlink ref="B28" r:id="rId59" location="Class"/>
-    <hyperlink ref="A29" r:id="rId60" location="Leitthema"/>
-    <hyperlink ref="B29" r:id="rId61" location="Class"/>
-    <hyperlink ref="B30" r:id="rId62" location="Datatype"/>
-    <hyperlink ref="A31" r:id="rId63" location="precedingWork"/>
-    <hyperlink ref="B31" r:id="rId64" location="ObjectProperty"/>
-    <hyperlink ref="A32" r:id="rId65" location="Software"/>
-    <hyperlink ref="B32" r:id="rId66" location="Class"/>
-    <hyperlink ref="C32" r:id="rId67" location="Publikationstyp"/>
-    <hyperlink ref="A33" r:id="rId68" location="hatZugangsart"/>
-    <hyperlink ref="B33" r:id="rId69" location="ObjectProperty"/>
-    <hyperlink ref="A34" r:id="rId70" location="GruppeMitAutorenfunktion"/>
-    <hyperlink ref="B34" r:id="rId71" location="Class"/>
-    <hyperlink ref="C34" r:id="rId72" location="Schoepfertyp"/>
-    <hyperlink ref="A35" r:id="rId73" location="Nebenberuflich"/>
+    <hyperlink ref="A23" r:id="rId48" location="Sammelband"/>
+    <hyperlink ref="B23" r:id="rId49" location="Class"/>
+    <hyperlink ref="C23" r:id="rId50" location="Buch"/>
+    <hyperlink ref="A24" r:id="rId51" location="hatBetreiber"/>
+    <hyperlink ref="B24" r:id="rId52" location="ObjectProperty"/>
+    <hyperlink ref="B25" r:id="rId53" location="List"/>
+    <hyperlink ref="A26" r:id="rId54" location="Bundeslaender"/>
+    <hyperlink ref="B26" r:id="rId55" location="Class"/>
+    <hyperlink ref="C26" r:id="rId56" location="Mittelgeber"/>
+    <hyperlink ref="A27" r:id="rId57" location="hatArt"/>
+    <hyperlink ref="B27" r:id="rId58" location="ObjectProperty"/>
+    <hyperlink ref="A28" r:id="rId59" location="Taetigkeitsart"/>
+    <hyperlink ref="B28" r:id="rId60" location="Class"/>
+    <hyperlink ref="A29" r:id="rId61" location="hatTaetigkeitsart"/>
+    <hyperlink ref="B29" r:id="rId62" location="ObjectProperty"/>
+    <hyperlink ref="A30" r:id="rId63" location="hatKoordinator"/>
+    <hyperlink ref="B30" r:id="rId64" location="ObjectProperty"/>
+    <hyperlink ref="A31" r:id="rId65" location="Veroeffentlichungsnummer"/>
+    <hyperlink ref="B31" r:id="rId66" location="DatatypeProperty"/>
+    <hyperlink ref="A32" r:id="rId67" location="QuelleneditionDokumenttyp"/>
+    <hyperlink ref="B32" r:id="rId68" location="Class"/>
+    <hyperlink ref="C32" r:id="rId69" location="Dokumenttyp"/>
+    <hyperlink ref="B33" r:id="rId70" location="List"/>
+    <hyperlink ref="A34" r:id="rId71" location="VertragslaufzeitInMonaten"/>
+    <hyperlink ref="B34" r:id="rId72" location="FunctionalProperty"/>
+    <hyperlink ref="A35" r:id="rId73" location="NichtErklaertOeffentlicheMittelgeber"/>
     <hyperlink ref="B35" r:id="rId74" location="Class"/>
-    <hyperlink ref="C35" r:id="rId75" location="Taetigkeitsart"/>
+    <hyperlink ref="C35" r:id="rId75" location="NichtErklaert"/>
     <hyperlink ref="A36" r:id="rId76"/>
-    <hyperlink ref="B36" r:id="rId77" location="Class"/>
-    <hyperlink ref="C36" r:id="rId78"/>
-    <hyperlink ref="A37" r:id="rId79" location="Universitaet"/>
-    <hyperlink ref="B37" r:id="rId80" location="Class"/>
-    <hyperlink ref="C37" r:id="rId81" location="Promotionskooperationspartner"/>
-    <hyperlink ref="A38" r:id="rId82" location="date"/>
-    <hyperlink ref="B38" r:id="rId83" location="Datatype"/>
-    <hyperlink ref="A39" r:id="rId84" location="hatSprecher"/>
-    <hyperlink ref="B39" r:id="rId85" location="ObjectProperty"/>
-    <hyperlink ref="A40" r:id="rId86" location="Journalartikel"/>
-    <hyperlink ref="B40" r:id="rId87" location="Class"/>
-    <hyperlink ref="C40" r:id="rId88" location="Artikel"/>
-    <hyperlink ref="A41" r:id="rId89" location="Format"/>
-    <hyperlink ref="B41" r:id="rId90" location="Class"/>
-    <hyperlink ref="A42" r:id="rId91" location="GrossgeraeteUndInstrumente"/>
-    <hyperlink ref="B42" r:id="rId92" location="Class"/>
-    <hyperlink ref="C42" r:id="rId93" location="Forschungsinfrastrukturtyp"/>
-    <hyperlink ref="A43" r:id="rId94" location="Veroeffentlichungsnummer"/>
-    <hyperlink ref="B43" r:id="rId95" location="DatatypeProperty"/>
-    <hyperlink ref="A44" r:id="rId96" location="Teilzeit"/>
-    <hyperlink ref="B44" r:id="rId97" location="Class"/>
-    <hyperlink ref="C44" r:id="rId98" location="Hauptberuflich"/>
-    <hyperlink ref="A45" r:id="rId99" location="Publikationstyp"/>
-    <hyperlink ref="B45" r:id="rId100" location="Class"/>
-    <hyperlink ref="A46" r:id="rId101" location="Bundeslaender"/>
-    <hyperlink ref="B46" r:id="rId102" location="Class"/>
-    <hyperlink ref="C46" r:id="rId103" location="Mittelgeber"/>
-    <hyperlink ref="A47" r:id="rId104" location="Juniorprofessoren"/>
-    <hyperlink ref="B47" r:id="rId105" location="Class"/>
-    <hyperlink ref="C47" r:id="rId106" location="SonstigeProfessoren"/>
-    <hyperlink ref="A48" r:id="rId107"/>
-    <hyperlink ref="B48" r:id="rId108" location="AnnotationProperty"/>
-    <hyperlink ref="A49" r:id="rId109" location="Dissertation"/>
-    <hyperlink ref="B49" r:id="rId110" location="Class"/>
-    <hyperlink ref="C49" r:id="rId111" location="Qualifikationsschrift"/>
-    <hyperlink ref="A50" r:id="rId112" location="hatPublikationstyp"/>
-    <hyperlink ref="B50" r:id="rId113" location="ObjectProperty"/>
-    <hyperlink ref="A51" r:id="rId114" location="SonstigeProfessoren"/>
-    <hyperlink ref="B51" r:id="rId115" location="Class"/>
-    <hyperlink ref="C51" r:id="rId116" location="Professorenbezeichnung"/>
-    <hyperlink ref="A52" r:id="rId117" location="Person"/>
-    <hyperlink ref="B52" r:id="rId118" location="Class"/>
-    <hyperlink ref="A53" r:id="rId119" location="KoerperschaftMitAutorenfunktion"/>
-    <hyperlink ref="B53" r:id="rId120" location="Class"/>
-    <hyperlink ref="C53" r:id="rId121" location="Schoepfertyp"/>
-    <hyperlink ref="A54" r:id="rId122" location="hatBezeichnung"/>
-    <hyperlink ref="B54" r:id="rId123" location="ObjectProperty"/>
-    <hyperlink ref="A55" r:id="rId124" location="SharedAccess"/>
-    <hyperlink ref="B55" r:id="rId125" location="Class"/>
-    <hyperlink ref="C55" r:id="rId126" location="Zugangsart"/>
-    <hyperlink ref="A56" r:id="rId127" location="HerausgegebenesBuch"/>
-    <hyperlink ref="B56" r:id="rId128" location="Class"/>
-    <hyperlink ref="C56" r:id="rId129" location="Buch"/>
-    <hyperlink ref="A57" r:id="rId130" location="Besoldung"/>
-    <hyperlink ref="B57" r:id="rId131" location="DatatypeProperty"/>
-    <hyperlink ref="A58" r:id="rId132" location="AUF"/>
-    <hyperlink ref="B58" r:id="rId133" location="Class"/>
-    <hyperlink ref="C58" r:id="rId134" location="Promotionskooperationspartner"/>
-    <hyperlink ref="A59" r:id="rId135" location="semanticRelation"/>
-    <hyperlink ref="B59" r:id="rId136" location="ObjectProperty"/>
-    <hyperlink ref="A60" r:id="rId137" location="Drittmittelprojekt"/>
-    <hyperlink ref="B60" r:id="rId138" location="Class"/>
-    <hyperlink ref="B61" r:id="rId139" location="List"/>
-    <hyperlink ref="A62" r:id="rId140" location="Nutzung"/>
-    <hyperlink ref="B62" r:id="rId141" location="Class"/>
-    <hyperlink ref="A63" r:id="rId142" location="Seitenbereich"/>
-    <hyperlink ref="B63" r:id="rId143" location="DatatypeProperty"/>
-    <hyperlink ref="A64" r:id="rId144"/>
-    <hyperlink ref="B64" r:id="rId145" location="AnnotationProperty"/>
-    <hyperlink ref="A65" r:id="rId146" location="NeuerPublikationstyp"/>
-    <hyperlink ref="B65" r:id="rId147" location="Class"/>
-    <hyperlink ref="C65" r:id="rId148" location="Publikationstyp"/>
-    <hyperlink ref="A66" r:id="rId149" location="Fach"/>
-    <hyperlink ref="B66" r:id="rId150" location="Class"/>
-    <hyperlink ref="A67" r:id="rId151" location="Sammelbandbeitrag"/>
-    <hyperlink ref="B67" r:id="rId152" location="Class"/>
-    <hyperlink ref="C67" r:id="rId153" location="Artikel"/>
-    <hyperlink ref="A68" r:id="rId154" location="StartDerPromotionNachAnnahmeAmFachbereichAnDerFakultaet"/>
-    <hyperlink ref="B68" r:id="rId155" location="DatatypeProperty"/>
-    <hyperlink ref="A69" r:id="rId156" location="predecessor"/>
-    <hyperlink ref="B69" r:id="rId157" location="TransitiveProperty"/>
-    <hyperlink ref="A70" r:id="rId158" location="Seniorprofessoren"/>
-    <hyperlink ref="B70" r:id="rId159" location="Class"/>
-    <hyperlink ref="C70" r:id="rId160" location="SonstigeProfessoren"/>
-    <hyperlink ref="B71" r:id="rId161" location="List"/>
-    <hyperlink ref="A72" r:id="rId162" location="Ressource"/>
-    <hyperlink ref="B72" r:id="rId163" location="DatatypeProperty"/>
-    <hyperlink ref="A73" r:id="rId164" location="BeschreibungDerForschungsinfrastruktur"/>
-    <hyperlink ref="B73" r:id="rId165" location="DatatypeProperty"/>
-    <hyperlink ref="A74" r:id="rId166" location="WissenschaftlicheOderKuenstlerischeHilfskraefte"/>
-    <hyperlink ref="B74" r:id="rId167" location="Class"/>
-    <hyperlink ref="C74" r:id="rId168" location="WissenschaftlichesUndKuenstlerischesPersonal"/>
-    <hyperlink ref="A75" r:id="rId169" location="hatSchoepfertyp"/>
-    <hyperlink ref="B75" r:id="rId170" location="ObjectProperty"/>
-    <hyperlink ref="A76" r:id="rId171" location="Editorial"/>
-    <hyperlink ref="B76" r:id="rId172" location="Class"/>
-    <hyperlink ref="C76" r:id="rId173" location="Dokumenttyp"/>
-    <hyperlink ref="A77" r:id="rId174" location="Autor"/>
-    <hyperlink ref="B77" r:id="rId175" location="Class"/>
-    <hyperlink ref="C77" r:id="rId176" location="Schoepfertyp"/>
-    <hyperlink ref="B78" r:id="rId177" location="List"/>
-    <hyperlink ref="A79" r:id="rId178" location="Publikation"/>
-    <hyperlink ref="B79" r:id="rId179" location="Class"/>
-    <hyperlink ref="A80" r:id="rId180" location="hatFinanzierungsform"/>
-    <hyperlink ref="B80" r:id="rId181" location="ObjectProperty"/>
-    <hyperlink ref="A81" r:id="rId182" location="NichtErklaertOeffentlicheMittelgeber"/>
-    <hyperlink ref="B81" r:id="rId183" location="Class"/>
-    <hyperlink ref="C81" r:id="rId184" location="NichtErklaert"/>
-    <hyperlink ref="A82" r:id="rId185"/>
-    <hyperlink ref="B82" r:id="rId186" location="ObjectProperty"/>
-    <hyperlink ref="A83" r:id="rId187" location="successor"/>
-    <hyperlink ref="B83" r:id="rId188" location="ObjectProperty"/>
-    <hyperlink ref="A84" r:id="rId189" location="QuelleneditionDokumenttyp"/>
-    <hyperlink ref="B84" r:id="rId190" location="Class"/>
-    <hyperlink ref="C84" r:id="rId191" location="Dokumenttyp"/>
-    <hyperlink ref="A85" r:id="rId192" location="Staatsangehoerigkeit"/>
-    <hyperlink ref="B85" r:id="rId193" location="DatatypeProperty"/>
-    <hyperlink ref="A86" r:id="rId194" location="Beschaeftigung"/>
-    <hyperlink ref="B86" r:id="rId195" location="Class"/>
-    <hyperlink ref="B87" r:id="rId196" location="Class"/>
-    <hyperlink ref="A88" r:id="rId197" location="PeerReviewed"/>
-    <hyperlink ref="B88" r:id="rId198" location="DatatypeProperty"/>
-    <hyperlink ref="A89" r:id="rId199" location="AnzahlNutzungszugriffe"/>
-    <hyperlink ref="B89" r:id="rId200" location="DatatypeProperty"/>
-    <hyperlink ref="A90" r:id="rId201" location="TitelPublikation"/>
-    <hyperlink ref="B90" r:id="rId202" location="FunctionalProperty"/>
-    <hyperlink ref="A91" r:id="rId203" location="Projektbeginn"/>
-    <hyperlink ref="B91" r:id="rId204" location="FunctionalProperty"/>
-    <hyperlink ref="A92" r:id="rId205" location="TitelPatent"/>
-    <hyperlink ref="B92" r:id="rId206" location="FunctionalProperty"/>
-    <hyperlink ref="A93" r:id="rId207" location="OrdentlicheProfessoren"/>
-    <hyperlink ref="B93" r:id="rId208" location="Class"/>
-    <hyperlink ref="C93" r:id="rId209" location="Professorenbezeichnung"/>
-    <hyperlink ref="A94" r:id="rId210"/>
-    <hyperlink ref="B94" r:id="rId211" location="DatatypeProperty"/>
-    <hyperlink ref="A95" r:id="rId212" location="KoordinatorEinrichtung"/>
-    <hyperlink ref="B95" r:id="rId213" location="DatatypeProperty"/>
-    <hyperlink ref="A96" r:id="rId214" location="Bund"/>
-    <hyperlink ref="B96" r:id="rId215" location="Class"/>
-    <hyperlink ref="C96" r:id="rId216" location="Mittelgeber"/>
-    <hyperlink ref="A97" r:id="rId217" location="NameAusgruendung"/>
-    <hyperlink ref="B97" r:id="rId218" location="DatatypeProperty"/>
-    <hyperlink ref="A98" r:id="rId219" location="Virtuell"/>
-    <hyperlink ref="B98" r:id="rId220" location="Class"/>
-    <hyperlink ref="C98" r:id="rId221" location="Forschungsinfrastrukturart"/>
-    <hyperlink ref="A99" r:id="rId222" location="Koordinationsrolle"/>
-    <hyperlink ref="B99" r:id="rId223" location="DatatypeProperty"/>
-    <hyperlink ref="A100" r:id="rId224" location="Habilitiert"/>
-    <hyperlink ref="B100" r:id="rId225" location="Class"/>
-    <hyperlink ref="C100" r:id="rId226" location="Qualifikation"/>
-    <hyperlink ref="A101" r:id="rId227" location="hatBefristung"/>
-    <hyperlink ref="B101" r:id="rId228" location="FunctionalProperty"/>
-    <hyperlink ref="A102" r:id="rId229" location="hatOrganisationseinheit"/>
-    <hyperlink ref="B102" r:id="rId230" location="ObjectProperty"/>
-    <hyperlink ref="A103" r:id="rId231" location="Band"/>
-    <hyperlink ref="B103" r:id="rId232" location="DatatypeProperty"/>
-    <hyperlink ref="A104" r:id="rId233" location="Altersgruppe"/>
-    <hyperlink ref="B104" r:id="rId234" location="DatatypeProperty"/>
-    <hyperlink ref="B105" r:id="rId235" location="List"/>
-    <hyperlink ref="B106" r:id="rId236" location="List"/>
-    <hyperlink ref="A107" r:id="rId237" location="Promotionskooperationspartner"/>
-    <hyperlink ref="B107" r:id="rId238" location="Class"/>
-    <hyperlink ref="A108" r:id="rId239" location="LetterToTheEditor"/>
-    <hyperlink ref="B108" r:id="rId240" location="Class"/>
-    <hyperlink ref="C108" r:id="rId241" location="Dokumenttyp"/>
-    <hyperlink ref="A109" r:id="rId242" location="mapping"/>
-    <hyperlink ref="B109" r:id="rId243" location="AnnotationProperty"/>
-    <hyperlink ref="A110" r:id="rId244" location="succeedingProject"/>
-    <hyperlink ref="B110" r:id="rId245" location="TransitiveProperty"/>
-    <hyperlink ref="A111" r:id="rId246"/>
-    <hyperlink ref="B111" r:id="rId247" location="ObjectProperty"/>
-    <hyperlink ref="A112" r:id="rId248" location="Organisationseinheit"/>
-    <hyperlink ref="B112" r:id="rId249" location="Class"/>
-    <hyperlink ref="A113" r:id="rId250" location="BibliographieDokumenttyp"/>
-    <hyperlink ref="B113" r:id="rId251" location="Class"/>
-    <hyperlink ref="C113" r:id="rId252" location="Dokumenttyp"/>
-    <hyperlink ref="A114" r:id="rId253"/>
-    <hyperlink ref="B114" r:id="rId254" location="Ontology"/>
-    <hyperlink ref="A115" r:id="rId255"/>
-    <hyperlink ref="B115" r:id="rId256" location="NamedIndividual"/>
-    <hyperlink ref="A116" r:id="rId257" location="AusserplanmaessigeProfessoren"/>
-    <hyperlink ref="B116" r:id="rId258" location="Class"/>
-    <hyperlink ref="C116" r:id="rId259" location="SonstigeProfessoren"/>
-    <hyperlink ref="A117" r:id="rId260" location="GrundmittelUndInstitutionelleMittel"/>
-    <hyperlink ref="B117" r:id="rId261" location="Class"/>
-    <hyperlink ref="C117" r:id="rId262" location="Finanzierungsform"/>
-    <hyperlink ref="A118" r:id="rId263" location="hatBefristung"/>
-    <hyperlink ref="B118" r:id="rId264" location="ObjectProperty"/>
-    <hyperlink ref="A119" r:id="rId265" location="Forschungsfeld"/>
-    <hyperlink ref="B119" r:id="rId266" location="Class"/>
-    <hyperlink ref="A120" r:id="rId267" location="VertragslaufzeitInMonaten"/>
-    <hyperlink ref="B120" r:id="rId268" location="DatatypeProperty"/>
-    <hyperlink ref="A121" r:id="rId269" location="BibliographiePublikationstyp"/>
-    <hyperlink ref="B121" r:id="rId270" location="Class"/>
-    <hyperlink ref="C121" r:id="rId271" location="Buch"/>
-    <hyperlink ref="A122" r:id="rId272" location="WissenschaftlicherArtikel"/>
-    <hyperlink ref="B122" r:id="rId273" location="Class"/>
-    <hyperlink ref="C122" r:id="rId274" location="Dokumenttyp"/>
-    <hyperlink ref="A123" r:id="rId275" location="TitelProjekt"/>
-    <hyperlink ref="B123" r:id="rId276" location="DatatypeProperty"/>
-    <hyperlink ref="A124" r:id="rId277" location="Monographie"/>
-    <hyperlink ref="B124" r:id="rId278" location="Class"/>
-    <hyperlink ref="C124" r:id="rId279" location="Buch"/>
-    <hyperlink ref="A125" r:id="rId280" location="Habilitationsschrift"/>
-    <hyperlink ref="B125" r:id="rId281" location="Class"/>
-    <hyperlink ref="C125" r:id="rId282" location="Qualifikationsschrift"/>
-    <hyperlink ref="A126" r:id="rId283" location="Rezension"/>
-    <hyperlink ref="B126" r:id="rId284" location="Class"/>
-    <hyperlink ref="C126" r:id="rId285" location="Dokumenttyp"/>
-    <hyperlink ref="B127" r:id="rId286" location="List"/>
-    <hyperlink ref="B128" r:id="rId287" location="List"/>
-    <hyperlink ref="A129" r:id="rId288" location="MeetingAbstract"/>
-    <hyperlink ref="B129" r:id="rId289" location="Class"/>
-    <hyperlink ref="C129" r:id="rId290" location="Dokumenttyp"/>
-    <hyperlink ref="A130" r:id="rId291" location="NichtErklaertPrivateMittelgeber"/>
-    <hyperlink ref="B130" r:id="rId292" location="Class"/>
-    <hyperlink ref="C130" r:id="rId293" location="NichtErklaert"/>
-    <hyperlink ref="A131" r:id="rId294" location="BezeichnungDerForschungsinfrastruktur"/>
-    <hyperlink ref="B131" r:id="rId295" location="DatatypeProperty"/>
-    <hyperlink ref="A132" r:id="rId296"/>
-    <hyperlink ref="B132" r:id="rId297" location="DatatypeProperty"/>
-    <hyperlink ref="A133" r:id="rId298" location="SonstigesWissenschaftlichesUndKuenstlerischesPersonal"/>
-    <hyperlink ref="B133" r:id="rId299" location="Class"/>
-    <hyperlink ref="C133" r:id="rId300" location="WissenschaftlichesUndKuenstlerischesPersonal"/>
-    <hyperlink ref="A134" r:id="rId301" location="Artikel"/>
-    <hyperlink ref="B134" r:id="rId302" location="Class"/>
-    <hyperlink ref="C134" r:id="rId303" location="Publikationstyp"/>
-    <hyperlink ref="A135" r:id="rId304" location="AnzahlNutzer"/>
-    <hyperlink ref="B135" r:id="rId305" location="DatatypeProperty"/>
-    <hyperlink ref="A136" r:id="rId306" location="WissenschaftsunterstuetzendesPersonal"/>
-    <hyperlink ref="B136" r:id="rId307" location="Class"/>
-    <hyperlink ref="C136" r:id="rId308" location="Personalkategorie"/>
-    <hyperlink ref="A137" r:id="rId309" location="predecessor"/>
-    <hyperlink ref="B137" r:id="rId310" location="ObjectProperty"/>
-    <hyperlink ref="A138" r:id="rId311"/>
-    <hyperlink ref="B138" r:id="rId312" location="DatatypeProperty"/>
-    <hyperlink ref="A139" r:id="rId313" location="Personalkategorie"/>
-    <hyperlink ref="B139" r:id="rId314" location="Class"/>
-    <hyperlink ref="B140" r:id="rId315" location="List"/>
-    <hyperlink ref="A141" r:id="rId316" location="Schoepfername"/>
-    <hyperlink ref="B141" r:id="rId317" location="DatatypeProperty"/>
-    <hyperlink ref="B142" r:id="rId318" location="List"/>
-    <hyperlink ref="A143" r:id="rId319" location="hatVerlag"/>
-    <hyperlink ref="B143" r:id="rId320" location="ObjectProperty"/>
-    <hyperlink ref="A144" r:id="rId321" location="BeitraegeInterviewsInNicht-wissenschaftlichenMedien"/>
-    <hyperlink ref="B144" r:id="rId322" location="Class"/>
-    <hyperlink ref="C144" r:id="rId323" location="Publikationstyp"/>
-    <hyperlink ref="A145" r:id="rId324" location="Mischfinanzierung"/>
-    <hyperlink ref="B145" r:id="rId325" location="Class"/>
-    <hyperlink ref="C145" r:id="rId326" location="Finanzierungsform"/>
-    <hyperlink ref="A146" r:id="rId327" location="successor"/>
-    <hyperlink ref="B146" r:id="rId328" location="TransitiveProperty"/>
-    <hyperlink ref="B147" r:id="rId329" location="List"/>
-    <hyperlink ref="A148" r:id="rId330" location="Finanzierungsform"/>
-    <hyperlink ref="B148" r:id="rId331" location="Class"/>
-    <hyperlink ref="A149" r:id="rId332" location="Review"/>
-    <hyperlink ref="B149" r:id="rId333" location="Class"/>
-    <hyperlink ref="C149" r:id="rId334" location="Dokumenttyp"/>
-    <hyperlink ref="A150" r:id="rId335" location="hatDokumenttyp"/>
-    <hyperlink ref="B150" r:id="rId336" location="ObjectProperty"/>
-    <hyperlink ref="A151" r:id="rId337" location="Sprachcode"/>
-    <hyperlink ref="B151" r:id="rId338" location="DatatypeProperty"/>
-    <hyperlink ref="A152" r:id="rId339" location="Sammelband"/>
-    <hyperlink ref="B152" r:id="rId340" location="Class"/>
-    <hyperlink ref="C152" r:id="rId341" location="Buch"/>
-    <hyperlink ref="A153" r:id="rId342" location="QuelleneditionPublikationstyp"/>
-    <hyperlink ref="B153" r:id="rId343" location="Class"/>
-    <hyperlink ref="C153" r:id="rId344" location="Buch"/>
-    <hyperlink ref="A154" r:id="rId345"/>
-    <hyperlink ref="B154" r:id="rId346" location="DatatypeProperty"/>
-    <hyperlink ref="A155" r:id="rId347"/>
-    <hyperlink ref="B155" r:id="rId348" location="ObjectProperty"/>
-    <hyperlink ref="A156" r:id="rId349" location="DatumDerPrioritaetsbegruendendenErstanmeldung"/>
-    <hyperlink ref="B156" r:id="rId350" location="FunctionalProperty"/>
-    <hyperlink ref="A157" r:id="rId351" location="ePaper"/>
-    <hyperlink ref="B157" r:id="rId352" location="Class"/>
-    <hyperlink ref="C157" r:id="rId353" location="Artikel"/>
-    <hyperlink ref="A158" r:id="rId354" location="hatQualifikation"/>
-    <hyperlink ref="B158" r:id="rId355" location="ObjectProperty"/>
-    <hyperlink ref="B159" r:id="rId356" location="Class"/>
-    <hyperlink ref="A160" r:id="rId357" location="Professoren"/>
-    <hyperlink ref="B160" r:id="rId358" location="Class"/>
-    <hyperlink ref="C160" r:id="rId359" location="WissenschaftlichesUndKuenstlerischesPersonal"/>
-    <hyperlink ref="B161" r:id="rId360" location="List"/>
-    <hyperlink ref="A162" r:id="rId361" location="Projektende"/>
-    <hyperlink ref="B162" r:id="rId362" location="DatatypeProperty"/>
-    <hyperlink ref="A163" r:id="rId363" location="Projektbeginn"/>
-    <hyperlink ref="B163" r:id="rId364" location="DatatypeProperty"/>
-    <hyperlink ref="A164" r:id="rId365" location="hatBeschaeftigung"/>
-    <hyperlink ref="B164" r:id="rId366" location="ObjectProperty"/>
-    <hyperlink ref="A165" r:id="rId367" location="FoerderkennzeichenPublikation"/>
-    <hyperlink ref="B165" r:id="rId368" location="DatatypeProperty"/>
-    <hyperlink ref="A166" r:id="rId369" location="scopeNote"/>
-    <hyperlink ref="B166" r:id="rId370" location="AnnotationProperty"/>
-    <hyperlink ref="A167" r:id="rId371" location="Name"/>
-    <hyperlink ref="B167" r:id="rId372" location="DatatypeProperty"/>
-    <hyperlink ref="A168" r:id="rId373" location="Besoldung"/>
-    <hyperlink ref="B168" r:id="rId374" location="FunctionalProperty"/>
-    <hyperlink ref="B169" r:id="rId375" location="Class"/>
-    <hyperlink ref="A170" r:id="rId376" location="hatUebergeordnetesProjekt"/>
-    <hyperlink ref="B170" r:id="rId377" location="ObjectProperty"/>
-    <hyperlink ref="A171" r:id="rId378" location="GewerblicheWirtschaftUndSonstigePrivateBereiche"/>
-    <hyperlink ref="B171" r:id="rId379" location="Class"/>
-    <hyperlink ref="C171" r:id="rId380" location="Mittelgeber"/>
-    <hyperlink ref="A172" r:id="rId381" location="hatUnterstuetzungDurch"/>
-    <hyperlink ref="B172" r:id="rId382" location="ObjectProperty"/>
-    <hyperlink ref="A173" r:id="rId383" location="hatNutzung"/>
-    <hyperlink ref="B173" r:id="rId384" location="ObjectProperty"/>
-    <hyperlink ref="B174" r:id="rId385" location="List"/>
-    <hyperlink ref="A175" r:id="rId386" location="Drittmittelertraege"/>
-    <hyperlink ref="B175" r:id="rId387" location="DatatypeProperty"/>
-    <hyperlink ref="A176" r:id="rId388" location="succeedingProject"/>
-    <hyperlink ref="B176" r:id="rId389" location="ObjectProperty"/>
-    <hyperlink ref="A177" r:id="rId390" location="TitelPromotionsprogramm"/>
-    <hyperlink ref="B177" r:id="rId391" location="DatatypeProperty"/>
-    <hyperlink ref="A178" r:id="rId392" location="StrukturiertesPromotionsprogramm"/>
-    <hyperlink ref="B178" r:id="rId393" location="Class"/>
-    <hyperlink ref="A179" r:id="rId394" location="hatAnmelder"/>
-    <hyperlink ref="B179" r:id="rId395" location="ObjectProperty"/>
-    <hyperlink ref="A180" r:id="rId396" location="Konferenzname"/>
-    <hyperlink ref="B180" r:id="rId397" location="DatatypeProperty"/>
-    <hyperlink ref="A181" r:id="rId398" location="Dokumenttyp"/>
-    <hyperlink ref="B181" r:id="rId399" location="Class"/>
-    <hyperlink ref="A182" r:id="rId400" location="Konferenzposter"/>
-    <hyperlink ref="B182" r:id="rId401" location="Class"/>
-    <hyperlink ref="C182" r:id="rId402" location="Publikationstyp"/>
-    <hyperlink ref="A183" r:id="rId403" location="hatQualifizierungsverfahren"/>
-    <hyperlink ref="B183" r:id="rId404" location="ObjectProperty"/>
-    <hyperlink ref="B184" r:id="rId405" location="List"/>
-    <hyperlink ref="A185" r:id="rId406" location="ArbeitspapierForschungsbericht"/>
-    <hyperlink ref="B185" r:id="rId407" location="Class"/>
-    <hyperlink ref="C185" r:id="rId408" location="Publikationstyp"/>
-    <hyperlink ref="A186" r:id="rId409" location="Abschlusszeitpunkt"/>
-    <hyperlink ref="B186" r:id="rId410" location="DatatypeProperty"/>
-    <hyperlink ref="A187" r:id="rId411" location="AnzahlGenutzteStunden"/>
-    <hyperlink ref="B187" r:id="rId412" location="DatatypeProperty"/>
-    <hyperlink ref="A188" r:id="rId413" location="pgbid"/>
-    <hyperlink ref="B188" r:id="rId414" location="AnnotationProperty"/>
-    <hyperlink ref="A189" r:id="rId415" location="Verwaltungspersonal"/>
-    <hyperlink ref="B189" r:id="rId416" location="Class"/>
-    <hyperlink ref="C189" r:id="rId417" location="Personalkategorie"/>
-    <hyperlink ref="B190" r:id="rId418" location="Class"/>
-    <hyperlink ref="B191" r:id="rId419" location="List"/>
-    <hyperlink ref="A192" r:id="rId420" location="hatLeitthema"/>
-    <hyperlink ref="B192" r:id="rId421" location="ObjectProperty"/>
-    <hyperlink ref="B193" r:id="rId422" location="List"/>
-    <hyperlink ref="A194" r:id="rId423" location="UserAccess"/>
-    <hyperlink ref="B194" r:id="rId424" location="Class"/>
-    <hyperlink ref="C194" r:id="rId425" location="Zugangsart"/>
-    <hyperlink ref="A195" r:id="rId426" location="SonstigeKooperationspartner"/>
-    <hyperlink ref="B195" r:id="rId427" location="Class"/>
-    <hyperlink ref="C195" r:id="rId428" location="Promotionskooperationspartner"/>
-    <hyperlink ref="A196" r:id="rId429" location="Schoepfer"/>
-    <hyperlink ref="B196" r:id="rId430" location="Class"/>
-    <hyperlink ref="A197" r:id="rId431" location="hatBetriebspersonal"/>
-    <hyperlink ref="B197" r:id="rId432" location="ObjectProperty"/>
-    <hyperlink ref="A198" r:id="rId433" location="hatPromotionsberechtigungAus"/>
+    <hyperlink ref="B36" r:id="rId77" location="ObjectProperty"/>
+    <hyperlink ref="A37" r:id="rId78" location="TitelPublikation"/>
+    <hyperlink ref="B37" r:id="rId79" location="DatatypeProperty"/>
+    <hyperlink ref="A38" r:id="rId80" location="date"/>
+    <hyperlink ref="B38" r:id="rId81" location="Datatype"/>
+    <hyperlink ref="A39" r:id="rId82" location="FoerderkennzeichenPublikation"/>
+    <hyperlink ref="B39" r:id="rId83" location="FunctionalProperty"/>
+    <hyperlink ref="A40" r:id="rId84" location="GruppeMitHerausgeberfunktion"/>
+    <hyperlink ref="B40" r:id="rId85" location="Class"/>
+    <hyperlink ref="C40" r:id="rId86" location="Schoepfertyp"/>
+    <hyperlink ref="A41" r:id="rId87"/>
+    <hyperlink ref="B41" r:id="rId88" location="AnnotationProperty"/>
+    <hyperlink ref="A42" r:id="rId89" location="Kooperationspartner"/>
+    <hyperlink ref="B42" r:id="rId90" location="DatatypeProperty"/>
+    <hyperlink ref="A43" r:id="rId91" location="Monographie"/>
+    <hyperlink ref="B43" r:id="rId92" location="Class"/>
+    <hyperlink ref="C43" r:id="rId93" location="Buch"/>
+    <hyperlink ref="A44" r:id="rId94" location="hatLeitthema"/>
+    <hyperlink ref="B44" r:id="rId95" location="ObjectProperty"/>
+    <hyperlink ref="A45" r:id="rId96" location="hatPersonalkategorie"/>
+    <hyperlink ref="B45" r:id="rId97" location="ObjectProperty"/>
+    <hyperlink ref="A46" r:id="rId98" location="QuelleneditionPublikationstyp"/>
+    <hyperlink ref="B46" r:id="rId99" location="Class"/>
+    <hyperlink ref="C46" r:id="rId100" location="Buch"/>
+    <hyperlink ref="B47" r:id="rId101" location="Datatype"/>
+    <hyperlink ref="A48" r:id="rId102" location="hatFach"/>
+    <hyperlink ref="B48" r:id="rId103" location="ObjectProperty"/>
+    <hyperlink ref="A49" r:id="rId104" location="Foerderer"/>
+    <hyperlink ref="B49" r:id="rId105" location="DatatypeProperty"/>
+    <hyperlink ref="A50" r:id="rId106" location="hatPublikation"/>
+    <hyperlink ref="B50" r:id="rId107" location="ObjectProperty"/>
+    <hyperlink ref="A51" r:id="rId108" location="Verwaltungspersonal"/>
+    <hyperlink ref="B51" r:id="rId109" location="Class"/>
+    <hyperlink ref="C51" r:id="rId110" location="Personalkategorie"/>
+    <hyperlink ref="A52" r:id="rId111"/>
+    <hyperlink ref="B52" r:id="rId112" location="DatatypeProperty"/>
+    <hyperlink ref="A53" r:id="rId113" location="term_status"/>
+    <hyperlink ref="B53" r:id="rId114" location="AnnotationProperty"/>
+    <hyperlink ref="A54" r:id="rId115" location="WissenschaftlicheUndKuenstlerischeMitarbeiter"/>
+    <hyperlink ref="B54" r:id="rId116" location="Class"/>
+    <hyperlink ref="C54" r:id="rId117" location="WissenschaftlichesUndKuenstlerischesPersonal"/>
+    <hyperlink ref="A55" r:id="rId118" location="hatUnterstuetzungDurch"/>
+    <hyperlink ref="B55" r:id="rId119" location="ObjectProperty"/>
+    <hyperlink ref="A56" r:id="rId120" location="hatGemeinsameBerufung"/>
+    <hyperlink ref="B56" r:id="rId121" location="ObjectProperty"/>
+    <hyperlink ref="A57" r:id="rId122" location="BeschreibungDerForschungsinfrastruktur"/>
+    <hyperlink ref="B57" r:id="rId123" location="DatatypeProperty"/>
+    <hyperlink ref="B58" r:id="rId124" location="List"/>
+    <hyperlink ref="A59" r:id="rId125" location="VertragslaufzeitInMonaten"/>
+    <hyperlink ref="B59" r:id="rId126" location="DatatypeProperty"/>
+    <hyperlink ref="A60" r:id="rId127" location="BeitraegeInterviewsInNicht-wissenschaftlichenMedien"/>
+    <hyperlink ref="B60" r:id="rId128" location="Class"/>
+    <hyperlink ref="C60" r:id="rId129" location="Publikationstyp"/>
+    <hyperlink ref="A61" r:id="rId130" location="BezeichnungDerForschungsinfrastruktur"/>
+    <hyperlink ref="B61" r:id="rId131" location="DatatypeProperty"/>
+    <hyperlink ref="A62" r:id="rId132" location="InformationsUndKommunikationsinfrastrukturen"/>
+    <hyperlink ref="B62" r:id="rId133" location="Class"/>
+    <hyperlink ref="C62" r:id="rId134" location="Forschungsinfrastrukturtyp"/>
+    <hyperlink ref="A63" r:id="rId135" location="hatNutzung"/>
+    <hyperlink ref="B63" r:id="rId136" location="ObjectProperty"/>
+    <hyperlink ref="A64" r:id="rId137" location="BeteiligteInstitutionen"/>
+    <hyperlink ref="B64" r:id="rId138" location="DatatypeProperty"/>
+    <hyperlink ref="A65" r:id="rId139" location="Altersgruppe"/>
+    <hyperlink ref="B65" r:id="rId140" location="DatatypeProperty"/>
+    <hyperlink ref="A66" r:id="rId141" location="predecessor"/>
+    <hyperlink ref="B66" r:id="rId142" location="TransitiveProperty"/>
+    <hyperlink ref="A67" r:id="rId143" location="Journalartikel"/>
+    <hyperlink ref="B67" r:id="rId144" location="Class"/>
+    <hyperlink ref="C67" r:id="rId145" location="Artikel"/>
+    <hyperlink ref="A68" r:id="rId146" location="Fach"/>
+    <hyperlink ref="B68" r:id="rId147" location="Class"/>
+    <hyperlink ref="A69" r:id="rId148" location="hatQualifizierungsverfahren"/>
+    <hyperlink ref="B69" r:id="rId149" location="ObjectProperty"/>
+    <hyperlink ref="A70" r:id="rId150" location="WissenschaftlicheOderKuenstlerischeHilfskraefte"/>
+    <hyperlink ref="B70" r:id="rId151" location="Class"/>
+    <hyperlink ref="C70" r:id="rId152" location="WissenschaftlichesUndKuenstlerischesPersonal"/>
+    <hyperlink ref="A71" r:id="rId153" location="semanticRelation"/>
+    <hyperlink ref="B71" r:id="rId154" location="ObjectProperty"/>
+    <hyperlink ref="A72" r:id="rId155"/>
+    <hyperlink ref="B72" r:id="rId156" location="DatatypeProperty"/>
+    <hyperlink ref="A73" r:id="rId157" location="Seniorprofessoren"/>
+    <hyperlink ref="B73" r:id="rId158" location="Class"/>
+    <hyperlink ref="C73" r:id="rId159" location="SonstigeProfessoren"/>
+    <hyperlink ref="A74" r:id="rId160" location="precedingWork"/>
+    <hyperlink ref="B74" r:id="rId161" location="TransitiveProperty"/>
+    <hyperlink ref="A75" r:id="rId162" location="NameDerQuelle"/>
+    <hyperlink ref="B75" r:id="rId163" location="DatatypeProperty"/>
+    <hyperlink ref="A76" r:id="rId164" location="TitelPatent"/>
+    <hyperlink ref="B76" r:id="rId165" location="DatatypeProperty"/>
+    <hyperlink ref="A77" r:id="rId166" location="StartDerPromotionNachAnnahmeAmFachbereichAnDerFakultaet"/>
+    <hyperlink ref="B77" r:id="rId167" location="DatatypeProperty"/>
+    <hyperlink ref="A78" r:id="rId168" location="hatSprecher"/>
+    <hyperlink ref="B78" r:id="rId169" location="ObjectProperty"/>
+    <hyperlink ref="A79" r:id="rId170" location="Virtuell"/>
+    <hyperlink ref="B79" r:id="rId171" location="Class"/>
+    <hyperlink ref="C79" r:id="rId172" location="Forschungsinfrastrukturart"/>
+    <hyperlink ref="B80" r:id="rId173" location="List"/>
+    <hyperlink ref="A81" r:id="rId174"/>
+    <hyperlink ref="B81" r:id="rId175" location="DatatypeProperty"/>
+    <hyperlink ref="A82" r:id="rId176" location="GewerblicheWirtschaftUndSonstigePrivateBereiche"/>
+    <hyperlink ref="B82" r:id="rId177" location="Class"/>
+    <hyperlink ref="C82" r:id="rId178" location="Mittelgeber"/>
+    <hyperlink ref="A83" r:id="rId179" location="KoordinatorEinrichtung"/>
+    <hyperlink ref="B83" r:id="rId180" location="DatatypeProperty"/>
+    <hyperlink ref="B84" r:id="rId181" location="List"/>
+    <hyperlink ref="B85" r:id="rId182" location="List"/>
+    <hyperlink ref="B86" r:id="rId183" location="List"/>
+    <hyperlink ref="A87" r:id="rId184"/>
+    <hyperlink ref="B87" r:id="rId185" location="FunctionalProperty"/>
+    <hyperlink ref="A88" r:id="rId186" location="Konferenzposter"/>
+    <hyperlink ref="B88" r:id="rId187" location="Class"/>
+    <hyperlink ref="C88" r:id="rId188" location="Publikationstyp"/>
+    <hyperlink ref="A89" r:id="rId189" location="Schoepfername"/>
+    <hyperlink ref="B89" r:id="rId190" location="DatatypeProperty"/>
+    <hyperlink ref="A90" r:id="rId191" location="Editorial"/>
+    <hyperlink ref="B90" r:id="rId192" location="Class"/>
+    <hyperlink ref="C90" r:id="rId193" location="Dokumenttyp"/>
+    <hyperlink ref="A91" r:id="rId194"/>
+    <hyperlink ref="B91" r:id="rId195" location="AnnotationProperty"/>
+    <hyperlink ref="A92" r:id="rId196" location="GemeinsameBerufung"/>
+    <hyperlink ref="B92" r:id="rId197" location="Class"/>
+    <hyperlink ref="A93" r:id="rId198" location="Software"/>
+    <hyperlink ref="B93" r:id="rId199" location="Class"/>
+    <hyperlink ref="C93" r:id="rId200" location="Publikationstyp"/>
+    <hyperlink ref="A94" r:id="rId201" location="Personalkategorie"/>
+    <hyperlink ref="B94" r:id="rId202" location="Class"/>
+    <hyperlink ref="B95" r:id="rId203" location="List"/>
+    <hyperlink ref="A96" r:id="rId204" location="mappingRelation"/>
+    <hyperlink ref="B96" r:id="rId205" location="ObjectProperty"/>
+    <hyperlink ref="A97" r:id="rId206" location="HerausgeberschaftEinesSonderheftsEinerZeitschrift"/>
+    <hyperlink ref="B97" r:id="rId207" location="Class"/>
+    <hyperlink ref="C97" r:id="rId208" location="Publikationstyp"/>
+    <hyperlink ref="A98" r:id="rId209" location="WissenschaftlicherArtikel"/>
+    <hyperlink ref="B98" r:id="rId210" location="Class"/>
+    <hyperlink ref="C98" r:id="rId211" location="Dokumenttyp"/>
+    <hyperlink ref="A99" r:id="rId212" location="Finanzierungsform"/>
+    <hyperlink ref="B99" r:id="rId213" location="Class"/>
+    <hyperlink ref="A100" r:id="rId214" location="Promoviert"/>
+    <hyperlink ref="B100" r:id="rId215" location="Class"/>
+    <hyperlink ref="C100" r:id="rId216" location="Qualifikation"/>
+    <hyperlink ref="B101" r:id="rId217" location="List"/>
+    <hyperlink ref="A102" r:id="rId218" location="TitelProjekt"/>
+    <hyperlink ref="B102" r:id="rId219" location="DatatypeProperty"/>
+    <hyperlink ref="A103" r:id="rId220" location="Schoepfertyp"/>
+    <hyperlink ref="B103" r:id="rId221" location="Class"/>
+    <hyperlink ref="A104" r:id="rId222" location="Forschungsinfrastruktur"/>
+    <hyperlink ref="B104" r:id="rId223" location="Class"/>
+    <hyperlink ref="A105" r:id="rId224" location="SonstigeKooperationspartner"/>
+    <hyperlink ref="B105" r:id="rId225" location="Class"/>
+    <hyperlink ref="C105" r:id="rId226" location="Promotionskooperationspartner"/>
+    <hyperlink ref="A106" r:id="rId227" location="BezeichnungDerProfessur"/>
+    <hyperlink ref="B106" r:id="rId228" location="DatatypeProperty"/>
+    <hyperlink ref="A107" r:id="rId229" location="DatumDerPrioritaetsbegruendendenErstanmeldung"/>
+    <hyperlink ref="B107" r:id="rId230" location="FunctionalProperty"/>
+    <hyperlink ref="A108" r:id="rId231" location="hatBefristung"/>
+    <hyperlink ref="B108" r:id="rId232" location="FunctionalProperty"/>
+    <hyperlink ref="A109" r:id="rId233"/>
+    <hyperlink ref="B109" r:id="rId234" location="ObjectProperty"/>
+    <hyperlink ref="A110" r:id="rId235" location="BibliographieDokumenttyp"/>
+    <hyperlink ref="B110" r:id="rId236" location="Class"/>
+    <hyperlink ref="C110" r:id="rId237" location="Dokumenttyp"/>
+    <hyperlink ref="A111" r:id="rId238" location="Unbefristet"/>
+    <hyperlink ref="B111" r:id="rId239" location="Class"/>
+    <hyperlink ref="C111" r:id="rId240" location="Befristung"/>
+    <hyperlink ref="A112" r:id="rId241"/>
+    <hyperlink ref="B112" r:id="rId242" location="AnnotationProperty"/>
+    <hyperlink ref="A113" r:id="rId243" location="SonstigeProfessoren"/>
+    <hyperlink ref="B113" r:id="rId244" location="Class"/>
+    <hyperlink ref="C113" r:id="rId245" location="Professorenbezeichnung"/>
+    <hyperlink ref="A114" r:id="rId246" location="SonstigeDrittmittelgeber"/>
+    <hyperlink ref="B114" r:id="rId247" location="Class"/>
+    <hyperlink ref="C114" r:id="rId248" location="Mittelgeber"/>
+    <hyperlink ref="A115" r:id="rId249" location="NeuerPublikationstyp"/>
+    <hyperlink ref="B115" r:id="rId250" location="Class"/>
+    <hyperlink ref="C115" r:id="rId251" location="Publikationstyp"/>
+    <hyperlink ref="A116" r:id="rId252"/>
+    <hyperlink ref="B116" r:id="rId253" location="ObjectProperty"/>
+    <hyperlink ref="A117" r:id="rId254" location="Drittmittelprojekt"/>
+    <hyperlink ref="B117" r:id="rId255" location="Class"/>
+    <hyperlink ref="A118" r:id="rId256" location="EU"/>
+    <hyperlink ref="B118" r:id="rId257" location="Class"/>
+    <hyperlink ref="C118" r:id="rId258" location="EuUndSonstigeInternationaleOrganisationen"/>
+    <hyperlink ref="A119" r:id="rId259" location="Leitthema"/>
+    <hyperlink ref="B119" r:id="rId260" location="Class"/>
+    <hyperlink ref="A120" r:id="rId261" location="Forschungsinfrastrukturtyp"/>
+    <hyperlink ref="B120" r:id="rId262" location="Class"/>
+    <hyperlink ref="A121" r:id="rId263" location="hatFinanzierungsform"/>
+    <hyperlink ref="B121" r:id="rId264" location="ObjectProperty"/>
+    <hyperlink ref="A122" r:id="rId265" location="Staatsangehoerigkeit"/>
+    <hyperlink ref="B122" r:id="rId266" location="DatatypeProperty"/>
+    <hyperlink ref="A123" r:id="rId267" location="DatumDerPrioritaetsbegruendendenErstanmeldung"/>
+    <hyperlink ref="B123" r:id="rId268" location="DatatypeProperty"/>
+    <hyperlink ref="A124" r:id="rId269" location="FH"/>
+    <hyperlink ref="B124" r:id="rId270" location="Class"/>
+    <hyperlink ref="C124" r:id="rId271" location="Promotionskooperationspartner"/>
+    <hyperlink ref="A125" r:id="rId272" location="Habilitationsschrift"/>
+    <hyperlink ref="B125" r:id="rId273" location="Class"/>
+    <hyperlink ref="C125" r:id="rId274" location="Qualifikationsschrift"/>
+    <hyperlink ref="A126" r:id="rId275" location="Zugangsart"/>
+    <hyperlink ref="B126" r:id="rId276" location="Class"/>
+    <hyperlink ref="A127" r:id="rId277" location="Professoren"/>
+    <hyperlink ref="B127" r:id="rId278" location="Class"/>
+    <hyperlink ref="C127" r:id="rId279" location="WissenschaftlichesUndKuenstlerischesPersonal"/>
+    <hyperlink ref="A128" r:id="rId280" location="Ausgruendung"/>
+    <hyperlink ref="B128" r:id="rId281" location="Class"/>
+    <hyperlink ref="B129" r:id="rId282" location="Class"/>
+    <hyperlink ref="B130" r:id="rId283" location="List"/>
+    <hyperlink ref="A131" r:id="rId284" location="OpenAccess"/>
+    <hyperlink ref="B131" r:id="rId285" location="Class"/>
+    <hyperlink ref="C131" r:id="rId286" location="Zugangsart"/>
+    <hyperlink ref="A132" r:id="rId287" location="Befristung"/>
+    <hyperlink ref="B132" r:id="rId288" location="Class"/>
+    <hyperlink ref="B133" r:id="rId289" location="Datatype"/>
+    <hyperlink ref="A134" r:id="rId290" location="mapping"/>
+    <hyperlink ref="B134" r:id="rId291" location="AnnotationProperty"/>
+    <hyperlink ref="A135" r:id="rId292" location="hatUntereinheit"/>
+    <hyperlink ref="B135" r:id="rId293" location="ObjectProperty"/>
+    <hyperlink ref="A136" r:id="rId294" location="MeetingAbstract"/>
+    <hyperlink ref="B136" r:id="rId295" location="Class"/>
+    <hyperlink ref="C136" r:id="rId296" location="Dokumenttyp"/>
+    <hyperlink ref="A137" r:id="rId297" location="HerausgegebenesBuch"/>
+    <hyperlink ref="B137" r:id="rId298" location="Class"/>
+    <hyperlink ref="C137" r:id="rId299" location="Buch"/>
+    <hyperlink ref="A138" r:id="rId300" location="StartDerPromotionNachBetreuungsvereinbarungArbeitsvertrag"/>
+    <hyperlink ref="B138" r:id="rId301" location="DatatypeProperty"/>
+    <hyperlink ref="A139" r:id="rId302" location="hatBefristung"/>
+    <hyperlink ref="B139" r:id="rId303" location="ObjectProperty"/>
+    <hyperlink ref="A140" r:id="rId304" location="Nebenberuflich"/>
+    <hyperlink ref="B140" r:id="rId305" location="Class"/>
+    <hyperlink ref="C140" r:id="rId306" location="Taetigkeitsart"/>
+    <hyperlink ref="A141" r:id="rId307" location="NichtErklaert"/>
+    <hyperlink ref="B141" r:id="rId308" location="Class"/>
+    <hyperlink ref="C141" r:id="rId309" location="Mittelgeber"/>
+    <hyperlink ref="A142" r:id="rId310" location="BibliographiePublikationstyp"/>
+    <hyperlink ref="B142" r:id="rId311" location="Class"/>
+    <hyperlink ref="C142" r:id="rId312" location="Buch"/>
+    <hyperlink ref="A143" r:id="rId313" location="precedingWork"/>
+    <hyperlink ref="B143" r:id="rId314" location="ObjectProperty"/>
+    <hyperlink ref="A144" r:id="rId315" location="Mittelgeber"/>
+    <hyperlink ref="B144" r:id="rId316" location="Class"/>
+    <hyperlink ref="A145" r:id="rId317" location="Mischfinanzierung"/>
+    <hyperlink ref="B145" r:id="rId318" location="Class"/>
+    <hyperlink ref="C145" r:id="rId319" location="Finanzierungsform"/>
+    <hyperlink ref="A146" r:id="rId320" location="Seitenbereich"/>
+    <hyperlink ref="B146" r:id="rId321" location="DatatypeProperty"/>
+    <hyperlink ref="A147" r:id="rId322" location="NameDerOrganisationseinheit"/>
+    <hyperlink ref="B147" r:id="rId323" location="FunctionalProperty"/>
+    <hyperlink ref="A148" r:id="rId324" location="TitelPublikation"/>
+    <hyperlink ref="B148" r:id="rId325" location="FunctionalProperty"/>
+    <hyperlink ref="A149" r:id="rId326" location="hatMittelgeber"/>
+    <hyperlink ref="B149" r:id="rId327" location="ObjectProperty"/>
+    <hyperlink ref="A150" r:id="rId328" location="predecessor"/>
+    <hyperlink ref="B150" r:id="rId329" location="ObjectProperty"/>
+    <hyperlink ref="A151" r:id="rId330" location="hatBezeichnung"/>
+    <hyperlink ref="B151" r:id="rId331" location="ObjectProperty"/>
+    <hyperlink ref="A152" r:id="rId332" location="Band"/>
+    <hyperlink ref="B152" r:id="rId333" location="DatatypeProperty"/>
+    <hyperlink ref="A153" r:id="rId334" location="hatFormat"/>
+    <hyperlink ref="B153" r:id="rId335" location="ObjectProperty"/>
+    <hyperlink ref="A154" r:id="rId336" location="scopeNote"/>
+    <hyperlink ref="B154" r:id="rId337" location="AnnotationProperty"/>
+    <hyperlink ref="A155" r:id="rId338" location="pgbid"/>
+    <hyperlink ref="B155" r:id="rId339" location="AnnotationProperty"/>
+    <hyperlink ref="B156" r:id="rId340" location="Class"/>
+    <hyperlink ref="A157" r:id="rId341" location="succeedingProject"/>
+    <hyperlink ref="B157" r:id="rId342" location="TransitiveProperty"/>
+    <hyperlink ref="A158" r:id="rId343" location="hatZugangsart"/>
+    <hyperlink ref="B158" r:id="rId344" location="ObjectProperty"/>
+    <hyperlink ref="A159" r:id="rId345" location="hatKooperationspartner"/>
+    <hyperlink ref="B159" r:id="rId346" location="ObjectProperty"/>
+    <hyperlink ref="A160" r:id="rId347" location="Herausgeber"/>
+    <hyperlink ref="B160" r:id="rId348" location="Class"/>
+    <hyperlink ref="C160" r:id="rId349" location="Schoepfertyp"/>
+    <hyperlink ref="A161" r:id="rId350" location="Rezension"/>
+    <hyperlink ref="B161" r:id="rId351" location="Class"/>
+    <hyperlink ref="C161" r:id="rId352" location="Dokumenttyp"/>
+    <hyperlink ref="A162" r:id="rId353" location="Teilzeit"/>
+    <hyperlink ref="B162" r:id="rId354" location="Class"/>
+    <hyperlink ref="C162" r:id="rId355" location="Hauptberuflich"/>
+    <hyperlink ref="B163" r:id="rId356" location="List"/>
+    <hyperlink ref="A164" r:id="rId357" location="Geschlecht"/>
+    <hyperlink ref="B164" r:id="rId358" location="DatatypeProperty"/>
+    <hyperlink ref="A165" r:id="rId359" location="Beschaeftigung"/>
+    <hyperlink ref="B165" r:id="rId360" location="Class"/>
+    <hyperlink ref="A166" r:id="rId361" location="Review"/>
+    <hyperlink ref="B166" r:id="rId362" location="Class"/>
+    <hyperlink ref="C166" r:id="rId363" location="Dokumenttyp"/>
+    <hyperlink ref="A167" r:id="rId364" location="inhaltlicheDefinition"/>
+    <hyperlink ref="B167" r:id="rId365" location="AnnotationProperty"/>
+    <hyperlink ref="A168" r:id="rId366" location="Verlag"/>
+    <hyperlink ref="B168" r:id="rId367" location="Class"/>
+    <hyperlink ref="A169" r:id="rId368" location="FoerderkennzeichenPublikation"/>
+    <hyperlink ref="B169" r:id="rId369" location="DatatypeProperty"/>
+    <hyperlink ref="A170" r:id="rId370" location="Schoepfer"/>
+    <hyperlink ref="B170" r:id="rId371" location="Class"/>
+    <hyperlink ref="A171" r:id="rId372" location="SonstigesWissenschaftlichesUndKuenstlerischesPersonal"/>
+    <hyperlink ref="B171" r:id="rId373" location="Class"/>
+    <hyperlink ref="C171" r:id="rId374" location="WissenschaftlichesUndKuenstlerischesPersonal"/>
+    <hyperlink ref="A172" r:id="rId375" location="EuUndSonstigeInternationaleOrganisationen"/>
+    <hyperlink ref="B172" r:id="rId376" location="Class"/>
+    <hyperlink ref="C172" r:id="rId377" location="Mittelgeber"/>
+    <hyperlink ref="A173" r:id="rId378" location="Sammelbandbeitrag"/>
+    <hyperlink ref="B173" r:id="rId379" location="Class"/>
+    <hyperlink ref="C173" r:id="rId380" location="Artikel"/>
+    <hyperlink ref="A174" r:id="rId381" location="GrundmittelUndInstitutionelleMittel"/>
+    <hyperlink ref="B174" r:id="rId382" location="Class"/>
+    <hyperlink ref="C174" r:id="rId383" location="Finanzierungsform"/>
+    <hyperlink ref="B175" r:id="rId384" location="Class"/>
+    <hyperlink ref="A176" r:id="rId385" location="hatSchoepfer"/>
+    <hyperlink ref="B176" r:id="rId386" location="ObjectProperty"/>
+    <hyperlink ref="A177" r:id="rId387" location="succeedingProject"/>
+    <hyperlink ref="B177" r:id="rId388" location="ObjectProperty"/>
+    <hyperlink ref="A178" r:id="rId389" location="GrossgeraeteUndInstrumente"/>
+    <hyperlink ref="B178" r:id="rId390" location="Class"/>
+    <hyperlink ref="C178" r:id="rId391" location="Forschungsinfrastrukturtyp"/>
+    <hyperlink ref="A179" r:id="rId392" location="Zugriffsrechte"/>
+    <hyperlink ref="B179" r:id="rId393" location="DatatypeProperty"/>
+    <hyperlink ref="A180" r:id="rId394" location="hatUebergeordnetesProjekt"/>
+    <hyperlink ref="B180" r:id="rId395" location="ObjectProperty"/>
+    <hyperlink ref="B181" r:id="rId396" location="List"/>
+    <hyperlink ref="A182" r:id="rId397" location="Autor"/>
+    <hyperlink ref="B182" r:id="rId398" location="Class"/>
+    <hyperlink ref="C182" r:id="rId399" location="Schoepfertyp"/>
+    <hyperlink ref="A183" r:id="rId400" location="successor"/>
+    <hyperlink ref="B183" r:id="rId401" location="TransitiveProperty"/>
+    <hyperlink ref="A184" r:id="rId402"/>
+    <hyperlink ref="B184" r:id="rId403" location="ObjectProperty"/>
+    <hyperlink ref="A185" r:id="rId404" location="Koordinationsrolle"/>
+    <hyperlink ref="B185" r:id="rId405" location="DatatypeProperty"/>
+    <hyperlink ref="B186" r:id="rId406" location="List"/>
+    <hyperlink ref="A187" r:id="rId407" location="Promotion"/>
+    <hyperlink ref="B187" r:id="rId408" location="Class"/>
+    <hyperlink ref="C187" r:id="rId409" location="Qualifizierungsverfahren"/>
+    <hyperlink ref="A188" r:id="rId410" location="Ressource"/>
+    <hyperlink ref="B188" r:id="rId411" location="DatatypeProperty"/>
+    <hyperlink ref="A189" r:id="rId412" location="TitelPromotionsprogramm"/>
+    <hyperlink ref="B189" r:id="rId413" location="DatatypeProperty"/>
+    <hyperlink ref="A190" r:id="rId414" location="Person"/>
+    <hyperlink ref="B190" r:id="rId415" location="Class"/>
+    <hyperlink ref="A191" r:id="rId416" location="hatTyp"/>
+    <hyperlink ref="B191" r:id="rId417" location="ObjectProperty"/>
+    <hyperlink ref="A192" r:id="rId418" location="KoerperschaftMitHerausgeberfunktion"/>
+    <hyperlink ref="B192" r:id="rId419" location="Class"/>
+    <hyperlink ref="C192" r:id="rId420" location="Schoepfertyp"/>
+    <hyperlink ref="A193" r:id="rId421" location="TitelProjektKurz"/>
+    <hyperlink ref="B193" r:id="rId422" location="DatatypeProperty"/>
+    <hyperlink ref="A194" r:id="rId423" location="hatOrganisationseinheit"/>
+    <hyperlink ref="B194" r:id="rId424" location="ObjectProperty"/>
+    <hyperlink ref="A195" r:id="rId425" location="ArbeitspapierForschungsbericht"/>
+    <hyperlink ref="B195" r:id="rId426" location="Class"/>
+    <hyperlink ref="C195" r:id="rId427" location="Publikationstyp"/>
+    <hyperlink ref="A196" r:id="rId428" location="Organisationseinheit"/>
+    <hyperlink ref="B196" r:id="rId429" location="Class"/>
+    <hyperlink ref="A197" r:id="rId430" location="AUF"/>
+    <hyperlink ref="B197" r:id="rId431" location="Class"/>
+    <hyperlink ref="C197" r:id="rId432" location="Promotionskooperationspartner"/>
+    <hyperlink ref="A198" r:id="rId433"/>
     <hyperlink ref="B198" r:id="rId434" location="DatatypeProperty"/>
-    <hyperlink ref="A199" r:id="rId435" location="hatKoordinator"/>
-    <hyperlink ref="B199" r:id="rId436" location="ObjectProperty"/>
-    <hyperlink ref="A200" r:id="rId437" location="Kooperationspartner"/>
-    <hyperlink ref="B200" r:id="rId438" location="DatatypeProperty"/>
-    <hyperlink ref="A201" r:id="rId439" location="Qualifikation"/>
+    <hyperlink ref="B199" r:id="rId435" location="List"/>
+    <hyperlink ref="A200" r:id="rId436" location="Stiftungsprofessoren"/>
+    <hyperlink ref="B200" r:id="rId437" location="Class"/>
+    <hyperlink ref="C200" r:id="rId438" location="SonstigeProfessoren"/>
+    <hyperlink ref="A201" r:id="rId439" location="Datensammlung"/>
     <hyperlink ref="B201" r:id="rId440" location="Class"/>
-    <hyperlink ref="B202" r:id="rId441" location="List"/>
-    <hyperlink ref="A203" r:id="rId442" location="Geschlecht"/>
-    <hyperlink ref="B203" r:id="rId443" location="FunctionalProperty"/>
-    <hyperlink ref="A204" r:id="rId444" location="Lokal"/>
-    <hyperlink ref="B204" r:id="rId445" location="Class"/>
-    <hyperlink ref="C204" r:id="rId446" location="Forschungsinfrastrukturart"/>
-    <hyperlink ref="A205" r:id="rId447" location="VertragslaufzeitInMonaten"/>
-    <hyperlink ref="B205" r:id="rId448" location="FunctionalProperty"/>
-    <hyperlink ref="A206" r:id="rId449" location="hatPublikation"/>
-    <hyperlink ref="B206" r:id="rId450" location="ObjectProperty"/>
-    <hyperlink ref="A207" r:id="rId451" location="Bewilligungssumme"/>
-    <hyperlink ref="B207" r:id="rId452" location="DatatypeProperty"/>
-    <hyperlink ref="A208" r:id="rId453" location="LaenderDerBeteiligtenInstitutionen"/>
-    <hyperlink ref="B208" r:id="rId454" location="DatatypeProperty"/>
-    <hyperlink ref="A209" r:id="rId455" location="inhaltlicheDefinition"/>
-    <hyperlink ref="B209" r:id="rId456" location="AnnotationProperty"/>
-    <hyperlink ref="A210" r:id="rId457" location="Stiftungsprofessoren"/>
-    <hyperlink ref="B210" r:id="rId458" location="Class"/>
-    <hyperlink ref="C210" r:id="rId459" location="SonstigeProfessoren"/>
-    <hyperlink ref="A211" r:id="rId460" location="SonstigerTyp"/>
-    <hyperlink ref="B211" r:id="rId461" location="Class"/>
-    <hyperlink ref="C211" r:id="rId462" location="Forschungsinfrastrukturtyp"/>
-    <hyperlink ref="B212" r:id="rId463" location="List"/>
-    <hyperlink ref="A213" r:id="rId464" location="Promoviert"/>
-    <hyperlink ref="B213" r:id="rId465" location="Class"/>
-    <hyperlink ref="C213" r:id="rId466" location="Qualifikation"/>
-    <hyperlink ref="A214" r:id="rId467" location="AltersgruppeBeiAbschluss"/>
-    <hyperlink ref="B214" r:id="rId468" location="DatatypeProperty"/>
-    <hyperlink ref="A215" r:id="rId469" location="Zugangsart"/>
-    <hyperlink ref="B215" r:id="rId470" location="Class"/>
-    <hyperlink ref="A216" r:id="rId471" location="Befristet"/>
-    <hyperlink ref="B216" r:id="rId472" location="Class"/>
-    <hyperlink ref="C216" r:id="rId473" location="Befristung"/>
-    <hyperlink ref="A217" r:id="rId474" location="term_status"/>
-    <hyperlink ref="B217" r:id="rId475" location="AnnotationProperty"/>
-    <hyperlink ref="A218" r:id="rId476" location="hatFormat"/>
-    <hyperlink ref="B218" r:id="rId477" location="ObjectProperty"/>
-    <hyperlink ref="A219" r:id="rId478" location="Zugriffsrechte"/>
-    <hyperlink ref="B219" r:id="rId479" location="DatatypeProperty"/>
-    <hyperlink ref="A220" r:id="rId480" location="hatKooperationspartner"/>
-    <hyperlink ref="B220" r:id="rId481" location="ObjectProperty"/>
-    <hyperlink ref="A221" r:id="rId482" location="Drittmitteleinnahmen"/>
-    <hyperlink ref="B221" r:id="rId483" location="DatatypeProperty"/>
-    <hyperlink ref="A222" r:id="rId484" location="Mittelgeber"/>
-    <hyperlink ref="B222" r:id="rId485" location="Class"/>
-    <hyperlink ref="A223" r:id="rId486" location="GemeinsameBerufung"/>
-    <hyperlink ref="B223" r:id="rId487" location="Class"/>
-    <hyperlink ref="A224" r:id="rId488" location="hatFach"/>
-    <hyperlink ref="B224" r:id="rId489" location="ObjectProperty"/>
-    <hyperlink ref="A225" r:id="rId490" location="NameDerOrganisationseinheit"/>
-    <hyperlink ref="B225" r:id="rId491" location="FunctionalProperty"/>
-    <hyperlink ref="A226" r:id="rId492" location="Herausgeber"/>
-    <hyperlink ref="B226" r:id="rId493" location="Class"/>
-    <hyperlink ref="C226" r:id="rId494" location="Schoepfertyp"/>
-    <hyperlink ref="A227" r:id="rId495" location="Hauptberuflich"/>
-    <hyperlink ref="B227" r:id="rId496" location="Class"/>
-    <hyperlink ref="C227" r:id="rId497" location="Taetigkeitsart"/>
-    <hyperlink ref="A228" r:id="rId498" location="Unbefristet"/>
-    <hyperlink ref="B228" r:id="rId499" location="Class"/>
-    <hyperlink ref="C228" r:id="rId500" location="Befristung"/>
-    <hyperlink ref="A229" r:id="rId501"/>
-    <hyperlink ref="B229" r:id="rId502" location="ObjectProperty"/>
-    <hyperlink ref="B230" r:id="rId503" location="Datatype"/>
-    <hyperlink ref="A231" r:id="rId504" location="Verlag"/>
-    <hyperlink ref="B231" r:id="rId505" location="Class"/>
-    <hyperlink ref="A232" r:id="rId506" location="Wissensressourcen"/>
-    <hyperlink ref="B232" r:id="rId507" location="Class"/>
-    <hyperlink ref="C232" r:id="rId508" location="Forschungsinfrastrukturtyp"/>
-    <hyperlink ref="A233" r:id="rId509" location="BeteiligteInstitutionen"/>
-    <hyperlink ref="B233" r:id="rId510" location="DatatypeProperty"/>
-    <hyperlink ref="B234" r:id="rId511" location="List"/>
-    <hyperlink ref="A235" r:id="rId512" location="Sondermittel"/>
-    <hyperlink ref="B235" r:id="rId513" location="Class"/>
-    <hyperlink ref="C235" r:id="rId514" location="Finanzierungsform"/>
-    <hyperlink ref="B236" r:id="rId515" location="Datatype"/>
-    <hyperlink ref="A237" r:id="rId516" location="hatForschungsfeld"/>
-    <hyperlink ref="B237" r:id="rId517" location="ObjectProperty"/>
-    <hyperlink ref="A238" r:id="rId518" location="DatumDerPrioritaetsbegruendendenErstanmeldung"/>
-    <hyperlink ref="B238" r:id="rId519" location="DatatypeProperty"/>
-    <hyperlink ref="A239" r:id="rId520" location="WissenschaftlicheVortragsfolien"/>
-    <hyperlink ref="B239" r:id="rId521" location="Class"/>
-    <hyperlink ref="C239" r:id="rId522" location="Publikationstyp"/>
-    <hyperlink ref="A240" r:id="rId523" location="FoerderkennzeichenDrittmittelprojekt"/>
-    <hyperlink ref="B240" r:id="rId524" location="DatatypeProperty"/>
-    <hyperlink ref="A241" r:id="rId525"/>
-    <hyperlink ref="B241" r:id="rId526" location="FunctionalProperty"/>
-    <hyperlink ref="A242" r:id="rId527" location="Befristung"/>
-    <hyperlink ref="B242" r:id="rId528" location="Class"/>
-    <hyperlink ref="A243" r:id="rId529" location="BezeichnungDerProfessur"/>
-    <hyperlink ref="B243" r:id="rId530" location="DatatypeProperty"/>
-    <hyperlink ref="A244" r:id="rId531" location="EuUndSonstigeInternationaleOrganisationen"/>
-    <hyperlink ref="B244" r:id="rId532" location="Class"/>
-    <hyperlink ref="C244" r:id="rId533" location="Mittelgeber"/>
-    <hyperlink ref="A245" r:id="rId534" location="Qualifizierungsverfahren"/>
-    <hyperlink ref="B245" r:id="rId535" location="Class"/>
-    <hyperlink ref="A246" r:id="rId536" location="hatBetreiber"/>
-    <hyperlink ref="B246" r:id="rId537" location="ObjectProperty"/>
-    <hyperlink ref="A247" r:id="rId538" location="DFG"/>
-    <hyperlink ref="B247" r:id="rId539" location="Class"/>
-    <hyperlink ref="C247" r:id="rId540" location="Mittelgeber"/>
-    <hyperlink ref="B248" r:id="rId541" location="List"/>
-    <hyperlink ref="B249" r:id="rId542" location="Class"/>
-    <hyperlink ref="A250" r:id="rId543" location="FoerderkennzeichenPublikation"/>
-    <hyperlink ref="B250" r:id="rId544" location="FunctionalProperty"/>
-    <hyperlink ref="A251" r:id="rId545" location="hatErfinder"/>
-    <hyperlink ref="B251" r:id="rId546" location="ObjectProperty"/>
-    <hyperlink ref="A252" r:id="rId547" location="NameDerWeiterenEinrichtung"/>
-    <hyperlink ref="B252" r:id="rId548" location="DatatypeProperty"/>
-    <hyperlink ref="A253" r:id="rId549" location="KoerperschaftMitHerausgeberfunktion"/>
-    <hyperlink ref="B253" r:id="rId550" location="Class"/>
-    <hyperlink ref="C253" r:id="rId551" location="Schoepfertyp"/>
-    <hyperlink ref="A254" r:id="rId552" location="Vollzeit"/>
-    <hyperlink ref="B254" r:id="rId553" location="Class"/>
-    <hyperlink ref="C254" r:id="rId554" location="Hauptberuflich"/>
-    <hyperlink ref="A255" r:id="rId555" location="Projektende"/>
-    <hyperlink ref="B255" r:id="rId556" location="FunctionalProperty"/>
-    <hyperlink ref="B256" r:id="rId557" location="List"/>
-    <hyperlink ref="A257" r:id="rId558"/>
-    <hyperlink ref="B257" r:id="rId559" location="AnnotationProperty"/>
-    <hyperlink ref="A258" r:id="rId560" location="Kooperationspartner"/>
-    <hyperlink ref="B258" r:id="rId561" location="Class"/>
-    <hyperlink ref="A259" r:id="rId562" location="hatArt"/>
-    <hyperlink ref="B259" r:id="rId563" location="ObjectProperty"/>
-    <hyperlink ref="A260" r:id="rId564"/>
-    <hyperlink ref="B260" r:id="rId565" location="ObjectProperty"/>
-    <hyperlink ref="A261" r:id="rId566" location="mappingRelation"/>
-    <hyperlink ref="B261" r:id="rId567" location="ObjectProperty"/>
-    <hyperlink ref="A262" r:id="rId568" location="OpenAccess"/>
-    <hyperlink ref="B262" r:id="rId569" location="Class"/>
-    <hyperlink ref="C262" r:id="rId570" location="Zugangsart"/>
-    <hyperlink ref="A263" r:id="rId571" location="Vertretungsprofessoren"/>
-    <hyperlink ref="B263" r:id="rId572" location="Class"/>
-    <hyperlink ref="C263" r:id="rId573" location="SonstigeProfessoren"/>
-    <hyperlink ref="A264" r:id="rId574" location="Qualifikationsschrift"/>
-    <hyperlink ref="B264" r:id="rId575" location="Class"/>
-    <hyperlink ref="C264" r:id="rId576" location="Publikationstyp"/>
-    <hyperlink ref="A265" r:id="rId577" location="StartDerPromotionNachBetreuungsvereinbarungArbeitsvertrag"/>
-    <hyperlink ref="B265" r:id="rId578" location="DatatypeProperty"/>
-    <hyperlink ref="A266" r:id="rId579" location="Professorenbezeichnung"/>
-    <hyperlink ref="B266" r:id="rId580" location="Class"/>
-    <hyperlink ref="A267" r:id="rId581" location="Patent"/>
-    <hyperlink ref="B267" r:id="rId582" location="Class"/>
-    <hyperlink ref="A268" r:id="rId583" location="hatSchoepfer"/>
-    <hyperlink ref="B268" r:id="rId584" location="ObjectProperty"/>
-    <hyperlink ref="A269" r:id="rId585" location="SonstigeInternationaleOrganisationen"/>
-    <hyperlink ref="B269" r:id="rId586" location="Class"/>
-    <hyperlink ref="C269" r:id="rId587" location="EuUndSonstigeInternationaleOrganisationen"/>
-    <hyperlink ref="A270" r:id="rId588" location="Drittmittel"/>
-    <hyperlink ref="B270" r:id="rId589" location="Class"/>
-    <hyperlink ref="C270" r:id="rId590" location="Finanzierungsform"/>
-    <hyperlink ref="A271" r:id="rId591" location="hatUntereinheit"/>
-    <hyperlink ref="B271" r:id="rId592" location="ObjectProperty"/>
-    <hyperlink ref="A272" r:id="rId593" location="hatTaetigkeitsart"/>
-    <hyperlink ref="B272" r:id="rId594" location="ObjectProperty"/>
-    <hyperlink ref="A273" r:id="rId595" location="hatGemeinsameBerufung"/>
-    <hyperlink ref="B273" r:id="rId596" location="ObjectProperty"/>
-    <hyperlink ref="A274" r:id="rId597" location="WissenschaftlichesUndKuenstlerischesPersonal"/>
-    <hyperlink ref="B274" r:id="rId598" location="Class"/>
-    <hyperlink ref="C274" r:id="rId599" location="Personalkategorie"/>
-    <hyperlink ref="A275" r:id="rId600" location="Habilitation"/>
-    <hyperlink ref="B275" r:id="rId601" location="Class"/>
-    <hyperlink ref="C275" r:id="rId602" location="Qualifizierungsverfahren"/>
-    <hyperlink ref="A276" r:id="rId603" location="InformationsUndKommunikationsinfrastrukturen"/>
-    <hyperlink ref="B276" r:id="rId604" location="Class"/>
-    <hyperlink ref="C276" r:id="rId605" location="Forschungsinfrastrukturtyp"/>
-    <hyperlink ref="A277" r:id="rId606"/>
-    <hyperlink ref="B277" r:id="rId607" location="AnnotationProperty"/>
-    <hyperlink ref="A278" r:id="rId608" location="Forschungsinfrastrukturtyp"/>
-    <hyperlink ref="B278" r:id="rId609" location="Class"/>
-    <hyperlink ref="A279" r:id="rId610" location="definition"/>
-    <hyperlink ref="B279" r:id="rId611" location="AnnotationProperty"/>
-    <hyperlink ref="A280" r:id="rId612" location="Geschlecht"/>
-    <hyperlink ref="B280" r:id="rId613" location="DatatypeProperty"/>
-    <hyperlink ref="A281" r:id="rId614" location="Promotion"/>
-    <hyperlink ref="B281" r:id="rId615" location="Class"/>
-    <hyperlink ref="C281" r:id="rId616" location="Qualifizierungsverfahren"/>
-    <hyperlink ref="A282" r:id="rId617"/>
-    <hyperlink ref="B282" r:id="rId618" location="Class"/>
-    <hyperlink ref="A283" r:id="rId619" location="hatPersonalkategorie"/>
-    <hyperlink ref="B283" r:id="rId620" location="ObjectProperty"/>
-    <hyperlink ref="A284" r:id="rId621" location="Schoepfertyp"/>
-    <hyperlink ref="B284" r:id="rId622" location="Class"/>
-    <hyperlink ref="A285" r:id="rId623" location="Beschaeftigter"/>
-    <hyperlink ref="B285" r:id="rId624" location="Class"/>
-    <hyperlink ref="C285" r:id="rId625" location="Person"/>
-    <hyperlink ref="A286" r:id="rId626" location="hatMittelgeber"/>
-    <hyperlink ref="B286" r:id="rId627" location="ObjectProperty"/>
-    <hyperlink ref="A287" r:id="rId628" location="SonstigesPersonal"/>
-    <hyperlink ref="B287" r:id="rId629" location="Class"/>
-    <hyperlink ref="C287" r:id="rId630" location="Personalkategorie"/>
-    <hyperlink ref="A288" r:id="rId631" location="TitelPublikation"/>
+    <hyperlink ref="C201" r:id="rId441" location="Publikationstyp"/>
+    <hyperlink ref="A202" r:id="rId442" location="ePaper"/>
+    <hyperlink ref="B202" r:id="rId443" location="Class"/>
+    <hyperlink ref="C202" r:id="rId444" location="Artikel"/>
+    <hyperlink ref="B203" r:id="rId445" location="List"/>
+    <hyperlink ref="A204" r:id="rId446" location="Bund"/>
+    <hyperlink ref="B204" r:id="rId447" location="Class"/>
+    <hyperlink ref="C204" r:id="rId448" location="Mittelgeber"/>
+    <hyperlink ref="A205" r:id="rId449" location="SonstigesPersonal"/>
+    <hyperlink ref="B205" r:id="rId450" location="Class"/>
+    <hyperlink ref="C205" r:id="rId451" location="Personalkategorie"/>
+    <hyperlink ref="A206" r:id="rId452" location="hatBeschaeftigung"/>
+    <hyperlink ref="B206" r:id="rId453" location="ObjectProperty"/>
+    <hyperlink ref="A207" r:id="rId454"/>
+    <hyperlink ref="B207" r:id="rId455" location="Ontology"/>
+    <hyperlink ref="A208" r:id="rId456" location="Buch"/>
+    <hyperlink ref="B208" r:id="rId457" location="Class"/>
+    <hyperlink ref="C208" r:id="rId458" location="Publikationstyp"/>
+    <hyperlink ref="A209" r:id="rId459" location="NameAusgruendung"/>
+    <hyperlink ref="B209" r:id="rId460" location="DatatypeProperty"/>
+    <hyperlink ref="A210" r:id="rId461" location="Lokal"/>
+    <hyperlink ref="B210" r:id="rId462" location="Class"/>
+    <hyperlink ref="C210" r:id="rId463" location="Forschungsinfrastrukturart"/>
+    <hyperlink ref="A211" r:id="rId464" location="Forschungsinfrastrukturart"/>
+    <hyperlink ref="B211" r:id="rId465" location="Class"/>
+    <hyperlink ref="A212" r:id="rId466"/>
+    <hyperlink ref="B212" r:id="rId467" location="NamedIndividual"/>
+    <hyperlink ref="A213" r:id="rId468" location="hatBetriebspersonal"/>
+    <hyperlink ref="B213" r:id="rId469" location="ObjectProperty"/>
+    <hyperlink ref="A214" r:id="rId470" location="Beschaeftigter"/>
+    <hyperlink ref="B214" r:id="rId471" location="Class"/>
+    <hyperlink ref="C214" r:id="rId472" location="Person"/>
+    <hyperlink ref="B215" r:id="rId473" location="Datatype"/>
+    <hyperlink ref="A216" r:id="rId474" location="Befristet"/>
+    <hyperlink ref="B216" r:id="rId475" location="Class"/>
+    <hyperlink ref="C216" r:id="rId476" location="Befristung"/>
+    <hyperlink ref="B217" r:id="rId477" location="Class"/>
+    <hyperlink ref="A218" r:id="rId478" location="Sprache"/>
+    <hyperlink ref="B218" r:id="rId479" location="DatatypeProperty"/>
+    <hyperlink ref="A219" r:id="rId480" location="OrdentlicheProfessoren"/>
+    <hyperlink ref="B219" r:id="rId481" location="Class"/>
+    <hyperlink ref="C219" r:id="rId482" location="Professorenbezeichnung"/>
+    <hyperlink ref="B220" r:id="rId483" location="List"/>
+    <hyperlink ref="A221" r:id="rId484" location="AnzahlNutzungszugriffe"/>
+    <hyperlink ref="B221" r:id="rId485" location="DatatypeProperty"/>
+    <hyperlink ref="A222" r:id="rId486" location="DFG"/>
+    <hyperlink ref="B222" r:id="rId487" location="Class"/>
+    <hyperlink ref="C222" r:id="rId488" location="Mittelgeber"/>
+    <hyperlink ref="A223" r:id="rId489" location="Projektende"/>
+    <hyperlink ref="B223" r:id="rId490" location="FunctionalProperty"/>
+    <hyperlink ref="A224" r:id="rId491" location="hatForschungsfeld"/>
+    <hyperlink ref="B224" r:id="rId492" location="ObjectProperty"/>
+    <hyperlink ref="A225" r:id="rId493" location="Verlagsort"/>
+    <hyperlink ref="B225" r:id="rId494" location="DatatypeProperty"/>
+    <hyperlink ref="A226" r:id="rId495" location="Besoldung"/>
+    <hyperlink ref="B226" r:id="rId496" location="FunctionalProperty"/>
+    <hyperlink ref="A227" r:id="rId497" location="Veroeffentlichungsjahr"/>
+    <hyperlink ref="B227" r:id="rId498" location="DatatypeProperty"/>
+    <hyperlink ref="A228" r:id="rId499" location="GruppeMitAutorenfunktion"/>
+    <hyperlink ref="B228" r:id="rId500" location="Class"/>
+    <hyperlink ref="C228" r:id="rId501" location="Schoepfertyp"/>
+    <hyperlink ref="A229" r:id="rId502" location="Dokumenttyp"/>
+    <hyperlink ref="B229" r:id="rId503" location="Class"/>
+    <hyperlink ref="A230" r:id="rId504" location="hatVerlag"/>
+    <hyperlink ref="B230" r:id="rId505" location="ObjectProperty"/>
+    <hyperlink ref="B231" r:id="rId506" location="List"/>
+    <hyperlink ref="A232" r:id="rId507" location="Projektende"/>
+    <hyperlink ref="B232" r:id="rId508" location="DatatypeProperty"/>
+    <hyperlink ref="A233" r:id="rId509" location="WissenschaftlicheVortragsfolien"/>
+    <hyperlink ref="B233" r:id="rId510" location="Class"/>
+    <hyperlink ref="C233" r:id="rId511" location="Publikationstyp"/>
+    <hyperlink ref="B234" r:id="rId512" location="List"/>
+    <hyperlink ref="A235" r:id="rId513" location="AnzahlNutzer"/>
+    <hyperlink ref="B235" r:id="rId514" location="DatatypeProperty"/>
+    <hyperlink ref="A236" r:id="rId515" location="definition"/>
+    <hyperlink ref="B236" r:id="rId516" location="AnnotationProperty"/>
+    <hyperlink ref="A237" r:id="rId517"/>
+    <hyperlink ref="B237" r:id="rId518" location="Class"/>
+    <hyperlink ref="C237" r:id="rId519"/>
+    <hyperlink ref="A238" r:id="rId520" location="SonstigeInternationaleOrganisationen"/>
+    <hyperlink ref="B238" r:id="rId521" location="Class"/>
+    <hyperlink ref="C238" r:id="rId522" location="EuUndSonstigeInternationaleOrganisationen"/>
+    <hyperlink ref="A239" r:id="rId523" location="KoerperschaftMitAutorenfunktion"/>
+    <hyperlink ref="B239" r:id="rId524" location="Class"/>
+    <hyperlink ref="C239" r:id="rId525" location="Schoepfertyp"/>
+    <hyperlink ref="A240" r:id="rId526" location="Name"/>
+    <hyperlink ref="B240" r:id="rId527" location="DatatypeProperty"/>
+    <hyperlink ref="A241" r:id="rId528" location="LaenderDerBeteiligtenInstitutionen"/>
+    <hyperlink ref="B241" r:id="rId529" location="DatatypeProperty"/>
+    <hyperlink ref="A242" r:id="rId530" location="Besoldung"/>
+    <hyperlink ref="B242" r:id="rId531" location="DatatypeProperty"/>
+    <hyperlink ref="A243" r:id="rId532" location="AusserplanmaessigeProfessoren"/>
+    <hyperlink ref="B243" r:id="rId533" location="Class"/>
+    <hyperlink ref="C243" r:id="rId534" location="SonstigeProfessoren"/>
+    <hyperlink ref="A244" r:id="rId535" location="Vollzeit"/>
+    <hyperlink ref="B244" r:id="rId536" location="Class"/>
+    <hyperlink ref="C244" r:id="rId537" location="Hauptberuflich"/>
+    <hyperlink ref="A245" r:id="rId538" location="hatErfinder"/>
+    <hyperlink ref="B245" r:id="rId539" location="ObjectProperty"/>
+    <hyperlink ref="A246" r:id="rId540" location="NameDerOrganisationseinheit"/>
+    <hyperlink ref="B246" r:id="rId541" location="DatatypeProperty"/>
+    <hyperlink ref="A247" r:id="rId542" location="Qualifizierungsverfahren"/>
+    <hyperlink ref="B247" r:id="rId543" location="Class"/>
+    <hyperlink ref="A248" r:id="rId544" location="Format"/>
+    <hyperlink ref="B248" r:id="rId545" location="Class"/>
+    <hyperlink ref="A249" r:id="rId546" location="Juniorprofessoren"/>
+    <hyperlink ref="B249" r:id="rId547" location="Class"/>
+    <hyperlink ref="C249" r:id="rId548" location="SonstigeProfessoren"/>
+    <hyperlink ref="A250" r:id="rId549" location="WissenschaftsunterstuetzendesPersonal"/>
+    <hyperlink ref="B250" r:id="rId550" location="Class"/>
+    <hyperlink ref="C250" r:id="rId551" location="Personalkategorie"/>
+    <hyperlink ref="A251" r:id="rId552" location="Forschungsfeld"/>
+    <hyperlink ref="B251" r:id="rId553" location="Class"/>
+    <hyperlink ref="A252" r:id="rId554" location="Drittmittelertraege"/>
+    <hyperlink ref="B252" r:id="rId555" location="DatatypeProperty"/>
+    <hyperlink ref="A253" r:id="rId556"/>
+    <hyperlink ref="B253" r:id="rId557" location="ObjectProperty"/>
+    <hyperlink ref="A254" r:id="rId558" location="NameDerWeiterenEinrichtung"/>
+    <hyperlink ref="B254" r:id="rId559" location="DatatypeProperty"/>
+    <hyperlink ref="A255" r:id="rId560" location="NichtErklaertPrivateMittelgeber"/>
+    <hyperlink ref="B255" r:id="rId561" location="Class"/>
+    <hyperlink ref="C255" r:id="rId562" location="NichtErklaert"/>
+    <hyperlink ref="A256" r:id="rId563" location="hatSchoepfertyp"/>
+    <hyperlink ref="B256" r:id="rId564" location="ObjectProperty"/>
+    <hyperlink ref="A257" r:id="rId565" location="Drittmittel"/>
+    <hyperlink ref="B257" r:id="rId566" location="Class"/>
+    <hyperlink ref="C257" r:id="rId567" location="Finanzierungsform"/>
+    <hyperlink ref="A258" r:id="rId568" location="LetterToTheEditor"/>
+    <hyperlink ref="B258" r:id="rId569" location="Class"/>
+    <hyperlink ref="C258" r:id="rId570" location="Dokumenttyp"/>
+    <hyperlink ref="B259" r:id="rId571" location="Class"/>
+    <hyperlink ref="A260" r:id="rId572" location="Wissensressourcen"/>
+    <hyperlink ref="B260" r:id="rId573" location="Class"/>
+    <hyperlink ref="C260" r:id="rId574" location="Forschungsinfrastrukturtyp"/>
+    <hyperlink ref="A261" r:id="rId575" location="successor"/>
+    <hyperlink ref="B261" r:id="rId576" location="ObjectProperty"/>
+    <hyperlink ref="A262" r:id="rId577" location="Drittmitteleinnahmen"/>
+    <hyperlink ref="B262" r:id="rId578" location="DatatypeProperty"/>
+    <hyperlink ref="A263" r:id="rId579"/>
+    <hyperlink ref="B263" r:id="rId580" location="Class"/>
+    <hyperlink ref="A264" r:id="rId581" location="Abschlusszeitpunkt"/>
+    <hyperlink ref="B264" r:id="rId582" location="DatatypeProperty"/>
+    <hyperlink ref="A265" r:id="rId583" location="hatPublikationstyp"/>
+    <hyperlink ref="B265" r:id="rId584" location="ObjectProperty"/>
+    <hyperlink ref="A266" r:id="rId585" location="Habilitiert"/>
+    <hyperlink ref="B266" r:id="rId586" location="Class"/>
+    <hyperlink ref="C266" r:id="rId587" location="Qualifikation"/>
+    <hyperlink ref="A267" r:id="rId588" location="Professorenbezeichnung"/>
+    <hyperlink ref="B267" r:id="rId589" location="Class"/>
+    <hyperlink ref="B268" r:id="rId590" location="List"/>
+    <hyperlink ref="A269" r:id="rId591" location="SonstigerTyp"/>
+    <hyperlink ref="B269" r:id="rId592" location="Class"/>
+    <hyperlink ref="C269" r:id="rId593" location="Forschungsinfrastrukturtyp"/>
+    <hyperlink ref="A270" r:id="rId594" location="Projektbeginn"/>
+    <hyperlink ref="B270" r:id="rId595" location="FunctionalProperty"/>
+    <hyperlink ref="A271" r:id="rId596" location="Publikationstyp"/>
+    <hyperlink ref="B271" r:id="rId597" location="Class"/>
+    <hyperlink ref="A272" r:id="rId598" location="Hauptberuflich"/>
+    <hyperlink ref="B272" r:id="rId599" location="Class"/>
+    <hyperlink ref="C272" r:id="rId600" location="Taetigkeitsart"/>
+    <hyperlink ref="A273" r:id="rId601" location="Sondermittel"/>
+    <hyperlink ref="B273" r:id="rId602" location="Class"/>
+    <hyperlink ref="C273" r:id="rId603" location="Finanzierungsform"/>
+    <hyperlink ref="A274" r:id="rId604" location="Habilitation"/>
+    <hyperlink ref="B274" r:id="rId605" location="Class"/>
+    <hyperlink ref="C274" r:id="rId606" location="Qualifizierungsverfahren"/>
+    <hyperlink ref="A275" r:id="rId607" location="Heft"/>
+    <hyperlink ref="B275" r:id="rId608" location="DatatypeProperty"/>
+    <hyperlink ref="B276" r:id="rId609" location="List"/>
+    <hyperlink ref="A277" r:id="rId610" location="Projektbeginn"/>
+    <hyperlink ref="B277" r:id="rId611" location="DatatypeProperty"/>
+    <hyperlink ref="A278" r:id="rId612" location="Promotionskooperationspartner"/>
+    <hyperlink ref="B278" r:id="rId613" location="Class"/>
+    <hyperlink ref="A279" r:id="rId614" location="hatPromotionsberechtigungAus"/>
+    <hyperlink ref="B279" r:id="rId615" location="DatatypeProperty"/>
+    <hyperlink ref="A280" r:id="rId616" location="hatAnmelder"/>
+    <hyperlink ref="B280" r:id="rId617" location="ObjectProperty"/>
+    <hyperlink ref="A281" r:id="rId618" location="AnzahlGenutzteStunden"/>
+    <hyperlink ref="B281" r:id="rId619" location="DatatypeProperty"/>
+    <hyperlink ref="A282" r:id="rId620" location="Sprachcode"/>
+    <hyperlink ref="B282" r:id="rId621" location="DatatypeProperty"/>
+    <hyperlink ref="B283" r:id="rId622" location="List"/>
+    <hyperlink ref="A284" r:id="rId623" location="hatDokumenttyp"/>
+    <hyperlink ref="B284" r:id="rId624" location="ObjectProperty"/>
+    <hyperlink ref="A285" r:id="rId625" location="TitelProjektRedaktionell"/>
+    <hyperlink ref="B285" r:id="rId626" location="DatatypeProperty"/>
+    <hyperlink ref="A286" r:id="rId627" location="hatErstbetreuer"/>
+    <hyperlink ref="B286" r:id="rId628" location="ObjectProperty"/>
+    <hyperlink ref="A287" r:id="rId629" location="StrukturiertesPromotionsprogramm"/>
+    <hyperlink ref="B287" r:id="rId630" location="Class"/>
+    <hyperlink ref="A288" r:id="rId631" location="Bewilligungssumme"/>
     <hyperlink ref="B288" r:id="rId632" location="DatatypeProperty"/>
-    <hyperlink ref="A289" r:id="rId633" location="Bewilligungssumme"/>
-    <hyperlink ref="B289" r:id="rId634" location="FunctionalProperty"/>
-    <hyperlink ref="A290" r:id="rId635" location="TitelPatent"/>
-    <hyperlink ref="B290" r:id="rId636" location="DatatypeProperty"/>
-    <hyperlink ref="A291" r:id="rId637" location="FH"/>
-    <hyperlink ref="B291" r:id="rId638" location="Class"/>
-    <hyperlink ref="C291" r:id="rId639" location="Promotionskooperationspartner"/>
-    <hyperlink ref="B292" r:id="rId640" location="List"/>
-    <hyperlink ref="A293" r:id="rId641" location="Forschungsinfrastruktur"/>
-    <hyperlink ref="B293" r:id="rId642" location="Class"/>
-    <hyperlink ref="A294" r:id="rId643" location="Datensammlung"/>
-    <hyperlink ref="B294" r:id="rId644" location="Class"/>
-    <hyperlink ref="C294" r:id="rId645" location="Publikationstyp"/>
-    <hyperlink ref="A295" r:id="rId646" location="Taetigkeitsart"/>
-    <hyperlink ref="B295" r:id="rId647" location="Class"/>
-    <hyperlink ref="A296" r:id="rId648" location="hatTyp"/>
-    <hyperlink ref="B296" r:id="rId649" location="ObjectProperty"/>
+    <hyperlink ref="A289" r:id="rId633" location="Vertretungsprofessoren"/>
+    <hyperlink ref="B289" r:id="rId634" location="Class"/>
+    <hyperlink ref="C289" r:id="rId635" location="SonstigeProfessoren"/>
+    <hyperlink ref="A290" r:id="rId636" location="SharedAccess"/>
+    <hyperlink ref="B290" r:id="rId637" location="Class"/>
+    <hyperlink ref="C290" r:id="rId638" location="Zugangsart"/>
+    <hyperlink ref="A291" r:id="rId639" location="HauptberuflicheGastprofessoren"/>
+    <hyperlink ref="B291" r:id="rId640" location="Class"/>
+    <hyperlink ref="C291" r:id="rId641" location="SonstigeProfessoren"/>
+    <hyperlink ref="B292" r:id="rId642" location="Class"/>
+    <hyperlink ref="A293" r:id="rId643" location="PeerReviewed"/>
+    <hyperlink ref="B293" r:id="rId644" location="DatatypeProperty"/>
+    <hyperlink ref="A294" r:id="rId645" location="Kooperationspartner"/>
+    <hyperlink ref="B294" r:id="rId646" location="Class"/>
+    <hyperlink ref="B295" r:id="rId647" location="List"/>
+    <hyperlink ref="A296" r:id="rId648" location="Geschlecht"/>
+    <hyperlink ref="B296" r:id="rId649" location="FunctionalProperty"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
